--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECB724-0D1C-4B7D-A061-D3F6C502C84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3909A4-22B2-4811-B0E5-3C9E27644D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="4380" windowWidth="8820" windowHeight="5748" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="325">
   <si>
     <t>Instruction</t>
   </si>
@@ -876,9 +876,6 @@
     <t>ALU_OE</t>
   </si>
   <si>
-    <t>Logic_Komp_OE</t>
-  </si>
-  <si>
     <t>Logic_Not_OE</t>
   </si>
   <si>
@@ -942,12 +939,6 @@
     <t>CPY</t>
   </si>
   <si>
-    <t>RDD</t>
-  </si>
-  <si>
-    <t>WTD</t>
-  </si>
-  <si>
     <t>ADD(L)</t>
   </si>
   <si>
@@ -958,18 +949,6 @@
   </si>
   <si>
     <t>LITB</t>
-  </si>
-  <si>
-    <t>RDA</t>
-  </si>
-  <si>
-    <t>RDB</t>
-  </si>
-  <si>
-    <t>WTA</t>
-  </si>
-  <si>
-    <t>WTB</t>
   </si>
   <si>
     <t>[AND/OR/XOR](L)</t>
@@ -1003,6 +982,30 @@
   </si>
   <si>
     <t>Stack_RAsync</t>
+  </si>
+  <si>
+    <t>LDB</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>SVA</t>
+  </si>
+  <si>
+    <t>SVB</t>
+  </si>
+  <si>
+    <t>LDD[P/M]</t>
+  </si>
+  <si>
+    <t>SVD[P/M]</t>
+  </si>
+  <si>
+    <t>HALT_CLR</t>
+  </si>
+  <si>
+    <t>Logic_Comp_OE</t>
   </si>
 </sst>
 </file>
@@ -1844,9 +1847,9 @@
   </sheetPr>
   <dimension ref="A1:AR260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,7 +1962,9 @@
       <c r="J2" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>323</v>
+      </c>
       <c r="L2" s="18"/>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -1992,66 +1997,66 @@
         <v>280</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="Y2" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AE2" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AF2" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG2" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="AF2" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="AH2" s="16" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AI2" s="17"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM2" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AN2" s="16" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AP2" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AQ2" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR2" s="18" t="s">
         <v>292</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2186,7 +2191,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -2400,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="10">
         <v>0</v>
@@ -3440,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -3449,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -3572,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -3581,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -4354,7 +4359,7 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -4516,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="10">
         <v>0</v>
@@ -5412,7 +5417,7 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -5574,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="10">
         <v>0</v>
@@ -6470,7 +6475,7 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -6632,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="10">
         <v>0</v>
@@ -7528,7 +7533,7 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>47</v>
@@ -7690,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="10">
         <v>0</v>
@@ -8586,7 +8591,7 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>55</v>
@@ -8748,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="10">
         <v>0</v>
@@ -9644,7 +9649,7 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -9806,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="10">
         <v>0</v>
@@ -10702,7 +10707,7 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>71</v>
@@ -10864,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="10">
         <v>0</v>
@@ -11760,7 +11765,7 @@
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>79</v>
@@ -11922,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="10">
         <v>0</v>
@@ -12818,7 +12823,7 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -12980,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="10">
         <v>0</v>
@@ -13876,7 +13881,7 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -14038,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="10">
         <v>0</v>
@@ -14934,7 +14939,7 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -15096,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="10">
         <v>0</v>
@@ -15992,7 +15997,7 @@
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>111</v>
@@ -16154,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="10">
         <v>0</v>
@@ -17050,7 +17055,7 @@
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>119</v>
@@ -17212,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="10">
         <v>0</v>
@@ -18108,7 +18113,7 @@
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>127</v>
@@ -18270,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="10">
         <v>0</v>
@@ -19166,7 +19171,7 @@
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -19328,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="10">
         <v>0</v>
@@ -20224,7 +20229,7 @@
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -20386,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="10">
         <v>0</v>
@@ -21282,7 +21287,7 @@
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -21444,7 +21449,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" s="10">
         <v>0</v>
@@ -22340,7 +22345,7 @@
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -22502,7 +22507,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" s="10">
         <v>0</v>
@@ -23393,7 +23398,7 @@
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>167</v>
@@ -23554,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" s="10">
         <v>0</v>
@@ -24444,7 +24449,7 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -24605,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" s="10">
         <v>0</v>
@@ -24745,7 +24750,7 @@
         <v>0</v>
       </c>
       <c r="N175" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" s="9">
         <v>0</v>
@@ -25495,7 +25500,7 @@
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -25656,7 +25661,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" s="10">
         <v>0</v>
@@ -26546,7 +26551,7 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" s="23" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -26707,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" s="10">
         <v>0</v>
@@ -27758,7 +27763,7 @@
         <v>1</v>
       </c>
       <c r="K198" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" s="10">
         <v>0</v>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3909A4-22B2-4811-B0E5-3C9E27644D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF978F9-B30A-473D-9854-D90FF955EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -909,9 +909,6 @@
     <t>Stack_DEC_EN</t>
   </si>
   <si>
-    <t>Stack_INC_EN</t>
-  </si>
-  <si>
     <t>ROM 0</t>
   </si>
   <si>
@@ -966,19 +963,10 @@
     <t>CO_In[0..7]-&gt;DBus</t>
   </si>
   <si>
-    <t>Stack_LatchSafeD_EN</t>
-  </si>
-  <si>
     <t>RAM_LatchSafeDA_EN</t>
   </si>
   <si>
     <t>RAM_RAsync_LatchSafeA</t>
-  </si>
-  <si>
-    <t>RAM_WAsync</t>
-  </si>
-  <si>
-    <t>Stack_WAsync</t>
   </si>
   <si>
     <t>Stack_RAsync</t>
@@ -1006,6 +994,18 @@
   </si>
   <si>
     <t>Logic_Comp_OE</t>
+  </si>
+  <si>
+    <t>Stack_INC+LatchSafeD_EN</t>
+  </si>
+  <si>
+    <t>Stack_PresentData</t>
+  </si>
+  <si>
+    <t>Stack_W</t>
+  </si>
+  <si>
+    <t>RAM_W</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1332,20 +1332,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1403,9 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,9 +1447,44 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1546,7 +1569,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1848,11 +1871,11 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
+      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="11" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="5" customWidth="1"/>
@@ -1931,17 +1954,17 @@
       <c r="AQ1" s="7"/>
       <c r="AR1" s="12"/>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1963,7 +1986,7 @@
         <v>267</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="15" t="s">
@@ -2003,7 +2026,7 @@
         <v>285</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Z2" s="16" t="s">
         <v>281</v>
@@ -2030,40 +2053,40 @@
         <v>289</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AI2" s="17"/>
       <c r="AJ2" s="18"/>
       <c r="AK2" s="15" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM2" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO2" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AN2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>316</v>
-      </c>
       <c r="AP2" s="16" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AQ2" s="17" t="s">
         <v>291</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="19">
         <v>0</v>
       </c>
@@ -2186,63 +2209,63 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="33" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36" t="s">
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="33" t="s">
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="33" t="s">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="34"/>
     </row>
     <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2376,7 +2399,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2508,7 +2531,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2640,7 +2663,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2772,7 +2795,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +2927,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3036,7 +3059,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3191,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3323,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>270</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3434,7 +3457,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -3566,7 +3589,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3721,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3830,7 +3853,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3962,7 +3985,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -4094,7 +4117,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
@@ -4226,7 +4249,7 @@
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
@@ -4358,8 +4381,8 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>294</v>
+      <c r="A21" s="21" t="s">
+        <v>293</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -4492,7 +4515,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +4647,7 @@
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
@@ -4756,7 +4779,7 @@
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4888,7 +4911,7 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
@@ -5020,7 +5043,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
@@ -5152,7 +5175,7 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
@@ -5284,7 +5307,7 @@
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
@@ -5416,8 +5439,8 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>295</v>
+      <c r="A29" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -5550,7 +5573,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
@@ -5682,7 +5705,7 @@
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
@@ -5692,8 +5715,8 @@
       <c r="D31" s="3">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
-        <v>1</v>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
       <c r="F31" s="9">
         <v>0</v>
@@ -5701,8 +5724,8 @@
       <c r="G31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
-        <v>1</v>
+      <c r="H31" s="10">
+        <v>0</v>
       </c>
       <c r="I31" s="9">
         <v>0</v>
@@ -5720,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="9">
         <v>0</v>
@@ -5798,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="9">
         <v>0</v>
@@ -5814,7 +5837,7 @@
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
@@ -5825,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -5834,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -5930,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="AN32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO32" s="9">
         <v>0</v>
       </c>
       <c r="AP32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="9">
         <v>0</v>
@@ -5946,7 +5969,7 @@
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
@@ -6078,7 +6101,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
@@ -6210,7 +6233,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -6342,7 +6365,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -6474,8 +6497,8 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>296</v>
+      <c r="A37" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -6608,7 +6631,7 @@
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -6740,7 +6763,7 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
@@ -6872,7 +6895,7 @@
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
@@ -7004,7 +7027,7 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
         <v>43</v>
       </c>
@@ -7136,7 +7159,7 @@
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
@@ -7268,7 +7291,7 @@
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
@@ -7400,7 +7423,7 @@
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
@@ -7532,8 +7555,8 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
-        <v>297</v>
+      <c r="A45" s="21" t="s">
+        <v>296</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>47</v>
@@ -7666,7 +7689,7 @@
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
@@ -7798,7 +7821,7 @@
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
@@ -7930,7 +7953,7 @@
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
@@ -8062,7 +8085,7 @@
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="5" t="s">
         <v>51</v>
       </c>
@@ -8194,7 +8217,7 @@
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
@@ -8326,7 +8349,7 @@
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
         <v>53</v>
       </c>
@@ -8458,7 +8481,7 @@
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
         <v>54</v>
       </c>
@@ -8590,8 +8613,8 @@
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>298</v>
+      <c r="A53" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>55</v>
@@ -8724,7 +8747,7 @@
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
@@ -8856,7 +8879,7 @@
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>57</v>
       </c>
@@ -8988,7 +9011,7 @@
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
         <v>58</v>
       </c>
@@ -9120,7 +9143,7 @@
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
@@ -9252,7 +9275,7 @@
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>60</v>
       </c>
@@ -9384,7 +9407,7 @@
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
         <v>61</v>
       </c>
@@ -9516,7 +9539,7 @@
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
@@ -9648,8 +9671,8 @@
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>299</v>
+      <c r="A61" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -9782,7 +9805,7 @@
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>64</v>
       </c>
@@ -9914,7 +9937,7 @@
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>65</v>
       </c>
@@ -10046,7 +10069,7 @@
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
         <v>66</v>
       </c>
@@ -10178,7 +10201,7 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
@@ -10310,7 +10333,7 @@
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>68</v>
       </c>
@@ -10442,7 +10465,7 @@
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
         <v>69</v>
       </c>
@@ -10574,7 +10597,7 @@
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="5" t="s">
         <v>70</v>
       </c>
@@ -10706,8 +10729,8 @@
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>300</v>
+      <c r="A69" s="21" t="s">
+        <v>299</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>71</v>
@@ -10840,7 +10863,7 @@
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
         <v>72</v>
       </c>
@@ -10972,7 +10995,7 @@
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="5" t="s">
         <v>73</v>
       </c>
@@ -11104,7 +11127,7 @@
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="5" t="s">
         <v>74</v>
       </c>
@@ -11236,7 +11259,7 @@
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="5" t="s">
         <v>75</v>
       </c>
@@ -11368,7 +11391,7 @@
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="5" t="s">
         <v>76</v>
       </c>
@@ -11500,7 +11523,7 @@
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="5" t="s">
         <v>77</v>
       </c>
@@ -11632,7 +11655,7 @@
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="5" t="s">
         <v>78</v>
       </c>
@@ -11764,8 +11787,8 @@
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>301</v>
+      <c r="A77" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>79</v>
@@ -11898,7 +11921,7 @@
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="5" t="s">
         <v>80</v>
       </c>
@@ -12030,7 +12053,7 @@
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="5" t="s">
         <v>81</v>
       </c>
@@ -12162,7 +12185,7 @@
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="5" t="s">
         <v>82</v>
       </c>
@@ -12294,7 +12317,7 @@
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="5" t="s">
         <v>83</v>
       </c>
@@ -12426,7 +12449,7 @@
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="5" t="s">
         <v>84</v>
       </c>
@@ -12558,7 +12581,7 @@
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="5" t="s">
         <v>85</v>
       </c>
@@ -12690,7 +12713,7 @@
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="5" t="s">
         <v>86</v>
       </c>
@@ -12822,8 +12845,8 @@
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>321</v>
+      <c r="A85" s="21" t="s">
+        <v>317</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -12956,7 +12979,7 @@
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="5" t="s">
         <v>88</v>
       </c>
@@ -13088,7 +13111,7 @@
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="5" t="s">
         <v>89</v>
       </c>
@@ -13220,7 +13243,7 @@
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="5" t="s">
         <v>90</v>
       </c>
@@ -13352,7 +13375,7 @@
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="5" t="s">
         <v>91</v>
       </c>
@@ -13484,7 +13507,7 @@
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="5" t="s">
         <v>92</v>
       </c>
@@ -13616,7 +13639,7 @@
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="5" t="s">
         <v>93</v>
       </c>
@@ -13748,7 +13771,7 @@
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="5" t="s">
         <v>94</v>
       </c>
@@ -13880,8 +13903,8 @@
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
-        <v>322</v>
+      <c r="A93" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -14014,7 +14037,7 @@
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="5" t="s">
         <v>96</v>
       </c>
@@ -14024,7 +14047,7 @@
       <c r="D94" s="3">
         <v>1</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
@@ -14033,7 +14056,7 @@
       <c r="G94" s="9">
         <v>0</v>
       </c>
-      <c r="H94" s="9">
+      <c r="H94" s="10">
         <v>0</v>
       </c>
       <c r="I94" s="9">
@@ -14146,7 +14169,7 @@
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="5" t="s">
         <v>97</v>
       </c>
@@ -14156,8 +14179,8 @@
       <c r="D95" s="3">
         <v>2</v>
       </c>
-      <c r="E95" s="8">
-        <v>1</v>
+      <c r="E95" s="9">
+        <v>0</v>
       </c>
       <c r="F95" s="9">
         <v>0</v>
@@ -14165,8 +14188,8 @@
       <c r="G95" s="9">
         <v>0</v>
       </c>
-      <c r="H95" s="9">
-        <v>1</v>
+      <c r="H95" s="10">
+        <v>0</v>
       </c>
       <c r="I95" s="9">
         <v>0</v>
@@ -14278,7 +14301,7 @@
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="5" t="s">
         <v>98</v>
       </c>
@@ -14289,7 +14312,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="9">
         <v>0</v>
@@ -14298,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="9">
         <v>0</v>
@@ -14316,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" s="9">
         <v>0</v>
@@ -14373,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="AG96" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH96" s="9">
         <v>0</v>
@@ -14391,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="AM96" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN96" s="9">
         <v>0</v>
@@ -14410,7 +14433,7 @@
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="5" t="s">
         <v>99</v>
       </c>
@@ -14542,7 +14565,7 @@
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="5" t="s">
         <v>100</v>
       </c>
@@ -14674,7 +14697,7 @@
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="5" t="s">
         <v>101</v>
       </c>
@@ -14806,7 +14829,7 @@
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="5" t="s">
         <v>102</v>
       </c>
@@ -14938,8 +14961,8 @@
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
-        <v>302</v>
+      <c r="A101" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -15072,7 +15095,7 @@
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="5" t="s">
         <v>104</v>
       </c>
@@ -15204,7 +15227,7 @@
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="5" t="s">
         <v>105</v>
       </c>
@@ -15336,7 +15359,7 @@
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="5" t="s">
         <v>106</v>
       </c>
@@ -15468,7 +15491,7 @@
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
+      <c r="A105" s="21"/>
       <c r="B105" s="5" t="s">
         <v>107</v>
       </c>
@@ -15600,7 +15623,7 @@
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="5" t="s">
         <v>108</v>
       </c>
@@ -15732,7 +15755,7 @@
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="5" t="s">
         <v>109</v>
       </c>
@@ -15864,7 +15887,7 @@
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="5" t="s">
         <v>110</v>
       </c>
@@ -15996,8 +16019,8 @@
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>303</v>
+      <c r="A109" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>111</v>
@@ -16130,7 +16153,7 @@
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="5" t="s">
         <v>112</v>
       </c>
@@ -16262,7 +16285,7 @@
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="5" t="s">
         <v>113</v>
       </c>
@@ -16394,7 +16417,7 @@
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="5" t="s">
         <v>114</v>
       </c>
@@ -16526,7 +16549,7 @@
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="5" t="s">
         <v>115</v>
       </c>
@@ -16658,7 +16681,7 @@
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="5" t="s">
         <v>116</v>
       </c>
@@ -16790,7 +16813,7 @@
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="5" t="s">
         <v>117</v>
       </c>
@@ -16922,7 +16945,7 @@
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="5" t="s">
         <v>118</v>
       </c>
@@ -17054,8 +17077,8 @@
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>304</v>
+      <c r="A117" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>119</v>
@@ -17188,7 +17211,7 @@
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="5" t="s">
         <v>120</v>
       </c>
@@ -17320,7 +17343,7 @@
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="5" t="s">
         <v>121</v>
       </c>
@@ -17452,7 +17475,7 @@
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="5" t="s">
         <v>122</v>
       </c>
@@ -17584,7 +17607,7 @@
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="5" t="s">
         <v>123</v>
       </c>
@@ -17716,7 +17739,7 @@
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A122" s="22"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="5" t="s">
         <v>124</v>
       </c>
@@ -17848,7 +17871,7 @@
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="5" t="s">
         <v>125</v>
       </c>
@@ -17980,7 +18003,7 @@
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="5" t="s">
         <v>126</v>
       </c>
@@ -18112,8 +18135,8 @@
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>305</v>
+      <c r="A125" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>127</v>
@@ -18246,7 +18269,7 @@
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A126" s="22"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="5" t="s">
         <v>128</v>
       </c>
@@ -18378,7 +18401,7 @@
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="5" t="s">
         <v>129</v>
       </c>
@@ -18510,7 +18533,7 @@
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="5" t="s">
         <v>130</v>
       </c>
@@ -18642,7 +18665,7 @@
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A129" s="22"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="5" t="s">
         <v>131</v>
       </c>
@@ -18774,7 +18797,7 @@
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A130" s="22"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="5" t="s">
         <v>132</v>
       </c>
@@ -18906,7 +18929,7 @@
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="5" t="s">
         <v>133</v>
       </c>
@@ -19038,7 +19061,7 @@
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="5" t="s">
         <v>134</v>
       </c>
@@ -19170,8 +19193,8 @@
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A133" s="22" t="s">
-        <v>318</v>
+      <c r="A133" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -19304,7 +19327,7 @@
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A134" s="22"/>
+      <c r="A134" s="21"/>
       <c r="B134" s="5" t="s">
         <v>136</v>
       </c>
@@ -19436,7 +19459,7 @@
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
+      <c r="A135" s="21"/>
       <c r="B135" s="5" t="s">
         <v>137</v>
       </c>
@@ -19568,7 +19591,7 @@
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A136" s="22"/>
+      <c r="A136" s="21"/>
       <c r="B136" s="5" t="s">
         <v>138</v>
       </c>
@@ -19700,7 +19723,7 @@
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A137" s="22"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="5" t="s">
         <v>139</v>
       </c>
@@ -19832,7 +19855,7 @@
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A138" s="22"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="5" t="s">
         <v>140</v>
       </c>
@@ -19964,7 +19987,7 @@
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A139" s="22"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="5" t="s">
         <v>141</v>
       </c>
@@ -20096,7 +20119,7 @@
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A140" s="22"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="5" t="s">
         <v>142</v>
       </c>
@@ -20228,8 +20251,8 @@
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>317</v>
+      <c r="A141" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -20362,7 +20385,7 @@
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A142" s="22"/>
+      <c r="A142" s="21"/>
       <c r="B142" s="5" t="s">
         <v>144</v>
       </c>
@@ -20494,7 +20517,7 @@
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A143" s="22"/>
+      <c r="A143" s="21"/>
       <c r="B143" s="5" t="s">
         <v>145</v>
       </c>
@@ -20626,7 +20649,7 @@
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A144" s="22"/>
+      <c r="A144" s="21"/>
       <c r="B144" s="5" t="s">
         <v>146</v>
       </c>
@@ -20758,7 +20781,7 @@
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A145" s="22"/>
+      <c r="A145" s="21"/>
       <c r="B145" s="5" t="s">
         <v>147</v>
       </c>
@@ -20890,7 +20913,7 @@
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A146" s="22"/>
+      <c r="A146" s="21"/>
       <c r="B146" s="5" t="s">
         <v>148</v>
       </c>
@@ -21022,7 +21045,7 @@
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A147" s="22"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="5" t="s">
         <v>149</v>
       </c>
@@ -21154,7 +21177,7 @@
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A148" s="22"/>
+      <c r="A148" s="21"/>
       <c r="B148" s="5" t="s">
         <v>150</v>
       </c>
@@ -21286,8 +21309,8 @@
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>319</v>
+      <c r="A149" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -21420,7 +21443,7 @@
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A150" s="22"/>
+      <c r="A150" s="21"/>
       <c r="B150" s="5" t="s">
         <v>152</v>
       </c>
@@ -21552,7 +21575,7 @@
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="5" t="s">
         <v>153</v>
       </c>
@@ -21562,8 +21585,8 @@
       <c r="D151" s="3">
         <v>2</v>
       </c>
-      <c r="E151" s="8">
-        <v>1</v>
+      <c r="E151" s="9">
+        <v>0</v>
       </c>
       <c r="F151" s="9">
         <v>0</v>
@@ -21571,8 +21594,8 @@
       <c r="G151" s="9">
         <v>0</v>
       </c>
-      <c r="H151" s="9">
-        <v>1</v>
+      <c r="H151" s="10">
+        <v>0</v>
       </c>
       <c r="I151" s="9">
         <v>0</v>
@@ -21684,7 +21707,7 @@
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A152" s="22"/>
+      <c r="A152" s="21"/>
       <c r="B152" s="5" t="s">
         <v>154</v>
       </c>
@@ -21695,7 +21718,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="9">
         <v>0</v>
@@ -21704,7 +21727,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" s="9">
         <v>0</v>
@@ -21722,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="N152" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O152" s="9">
         <v>0</v>
@@ -21776,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="AF152" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG152" s="9">
         <v>0</v>
@@ -21797,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="AM152" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN152" s="9">
         <v>0</v>
@@ -21816,7 +21839,7 @@
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A153" s="22"/>
+      <c r="A153" s="21"/>
       <c r="B153" s="5" t="s">
         <v>155</v>
       </c>
@@ -21948,7 +21971,7 @@
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A154" s="22"/>
+      <c r="A154" s="21"/>
       <c r="B154" s="5" t="s">
         <v>156</v>
       </c>
@@ -22080,7 +22103,7 @@
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A155" s="22"/>
+      <c r="A155" s="21"/>
       <c r="B155" s="5" t="s">
         <v>157</v>
       </c>
@@ -22212,7 +22235,7 @@
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A156" s="22"/>
+      <c r="A156" s="21"/>
       <c r="B156" s="5" t="s">
         <v>158</v>
       </c>
@@ -22344,8 +22367,8 @@
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A157" s="22" t="s">
-        <v>320</v>
+      <c r="A157" s="21" t="s">
+        <v>316</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -22478,7 +22501,7 @@
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A158" s="22"/>
+      <c r="A158" s="21"/>
       <c r="B158" s="5" t="s">
         <v>160</v>
       </c>
@@ -22610,7 +22633,7 @@
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A159" s="22"/>
+      <c r="A159" s="21"/>
       <c r="B159" s="5" t="s">
         <v>161</v>
       </c>
@@ -22620,8 +22643,8 @@
       <c r="D159" s="3">
         <v>2</v>
       </c>
-      <c r="E159" s="8">
-        <v>1</v>
+      <c r="E159" s="9">
+        <v>0</v>
       </c>
       <c r="F159" s="9">
         <v>0</v>
@@ -22629,8 +22652,8 @@
       <c r="G159" s="9">
         <v>0</v>
       </c>
-      <c r="H159" s="9">
-        <v>1</v>
+      <c r="H159" s="10">
+        <v>0</v>
       </c>
       <c r="I159" s="9">
         <v>0</v>
@@ -22752,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" s="9">
         <v>0</v>
@@ -22761,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" s="9">
         <v>0</v>
@@ -22785,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="P160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" s="9">
         <v>0</v>
@@ -22833,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="AF160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG160" s="9">
         <v>0</v>
@@ -22854,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="AM160" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN160" s="9">
         <v>0</v>
@@ -23398,7 +23421,7 @@
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>167</v>
@@ -24449,7 +24472,7 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -25499,8 +25522,8 @@
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A181" s="23" t="s">
-        <v>308</v>
+      <c r="A181" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -26550,8 +26573,8 @@
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A189" s="23" t="s">
-        <v>309</v>
+      <c r="A189" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -27034,7 +27057,7 @@
         <v>0</v>
       </c>
       <c r="AE192" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF192" s="9">
         <v>0</v>
@@ -27162,7 +27185,7 @@
         <v>0</v>
       </c>
       <c r="AD193" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE193" s="9">
         <v>0</v>
@@ -27204,7 +27227,7 @@
         <v>0</v>
       </c>
       <c r="AR193" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.3">
@@ -27323,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="AN194" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO194" s="9">
         <v>0</v>
@@ -27335,7 +27358,7 @@
         <v>0</v>
       </c>
       <c r="AR194" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.3">
@@ -27348,119 +27371,119 @@
       <c r="D195" s="3">
         <v>6</v>
       </c>
-      <c r="E195" s="8">
+      <c r="E195" s="9">
+        <v>0</v>
+      </c>
+      <c r="F195" s="9">
+        <v>0</v>
+      </c>
+      <c r="G195" s="9">
+        <v>0</v>
+      </c>
+      <c r="H195" s="9">
+        <v>0</v>
+      </c>
+      <c r="I195" s="9">
+        <v>0</v>
+      </c>
+      <c r="J195" s="9">
+        <v>0</v>
+      </c>
+      <c r="K195" s="9">
+        <v>0</v>
+      </c>
+      <c r="L195" s="10">
+        <v>0</v>
+      </c>
+      <c r="M195" s="8">
+        <v>0</v>
+      </c>
+      <c r="N195" s="9">
+        <v>0</v>
+      </c>
+      <c r="O195" s="9">
+        <v>0</v>
+      </c>
+      <c r="P195" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="9">
+        <v>0</v>
+      </c>
+      <c r="R195" s="9">
+        <v>0</v>
+      </c>
+      <c r="S195" s="9">
+        <v>0</v>
+      </c>
+      <c r="T195" s="10">
+        <v>0</v>
+      </c>
+      <c r="U195" s="8">
+        <v>0</v>
+      </c>
+      <c r="V195" s="9">
+        <v>0</v>
+      </c>
+      <c r="W195" s="9">
+        <v>0</v>
+      </c>
+      <c r="X195" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB195" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC195" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ195" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK195" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN195" s="9">
         <v>1</v>
       </c>
-      <c r="F195" s="9">
-        <v>0</v>
-      </c>
-      <c r="G195" s="9">
-        <v>0</v>
-      </c>
-      <c r="H195" s="9">
-        <v>0</v>
-      </c>
-      <c r="I195" s="9">
-        <v>0</v>
-      </c>
-      <c r="J195" s="9">
+      <c r="AO195" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP195" s="9">
         <v>1</v>
-      </c>
-      <c r="K195" s="9">
-        <v>0</v>
-      </c>
-      <c r="L195" s="10">
-        <v>0</v>
-      </c>
-      <c r="M195" s="8">
-        <v>0</v>
-      </c>
-      <c r="N195" s="9">
-        <v>0</v>
-      </c>
-      <c r="O195" s="9">
-        <v>0</v>
-      </c>
-      <c r="P195" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q195" s="9">
-        <v>0</v>
-      </c>
-      <c r="R195" s="9">
-        <v>0</v>
-      </c>
-      <c r="S195" s="9">
-        <v>0</v>
-      </c>
-      <c r="T195" s="10">
-        <v>0</v>
-      </c>
-      <c r="U195" s="8">
-        <v>0</v>
-      </c>
-      <c r="V195" s="9">
-        <v>0</v>
-      </c>
-      <c r="W195" s="9">
-        <v>0</v>
-      </c>
-      <c r="X195" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y195" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB195" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC195" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ195" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK195" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO195" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP195" s="9">
-        <v>0</v>
       </c>
       <c r="AQ195" s="9">
         <v>0</v>
@@ -27480,7 +27503,7 @@
         <v>7</v>
       </c>
       <c r="E196" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -27495,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" s="9">
         <v>0</v>
@@ -27552,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="AC196" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD196" s="9">
         <v>0</v>
@@ -27591,7 +27614,7 @@
         <v>0</v>
       </c>
       <c r="AP196" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ196" s="9">
         <v>0</v>
@@ -27601,7 +27624,7 @@
       </c>
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="22" t="s">
         <v>264</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -27632,7 +27655,7 @@
         <v>0</v>
       </c>
       <c r="K197" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197" s="10">
         <v>0</v>
@@ -27762,8 +27785,8 @@
       <c r="J198" s="9">
         <v>1</v>
       </c>
-      <c r="K198" s="9">
-        <v>1</v>
+      <c r="K198" s="10">
+        <v>0</v>
       </c>
       <c r="L198" s="10">
         <v>0</v>
@@ -35999,18 +36022,18 @@
     <mergeCell ref="U4:AB4"/>
     <mergeCell ref="AC4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:AJ148 E152:AJ156 E160:AJ180 E184:AJ1048576">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+  <conditionalFormatting sqref="E184:AJ189 E190:AD190 AF190:AJ190 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E160:AJ180 I95:AJ95 E96:AJ150 E32:AJ94 E191:AJ194 F195:AJ195 E199:AJ1048576 E198:J198 L198:AJ198 E196:AJ197">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C1048576 C2:C3">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36022,7 +36045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576 D2:D3">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36034,41 +36057,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AK160:AR180 AN157:AR159 AK184:AR1048576">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AR4">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:AJ151">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK149:AM151">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157:AJ159">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK157:AM159">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181:AJ183">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK181:AR183">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE190">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:H31">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:H151">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159:H159">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:H95">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK181:AR183">
+  <conditionalFormatting sqref="K198">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF978F9-B30A-473D-9854-D90FF955EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A5CD7D-AC53-460C-8461-426A14FE264A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -1871,8 +1871,8 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <pane ySplit="2" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
       <c r="K197" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" s="10">
         <v>0</v>
@@ -27785,8 +27785,8 @@
       <c r="J198" s="9">
         <v>1</v>
       </c>
-      <c r="K198" s="10">
-        <v>0</v>
+      <c r="K198" s="9">
+        <v>1</v>
       </c>
       <c r="L198" s="10">
         <v>0</v>
@@ -36022,18 +36022,18 @@
     <mergeCell ref="U4:AB4"/>
     <mergeCell ref="AC4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E184:AJ189 E190:AD190 AF190:AJ190 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E160:AJ180 I95:AJ95 E96:AJ150 E32:AJ94 E191:AJ194 F195:AJ195 E199:AJ1048576 E198:J198 L198:AJ198 E196:AJ197">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+  <conditionalFormatting sqref="E184:AJ189 E190:AD190 AF190:AJ190 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E160:AJ180 I95:AJ95 E96:AJ150 E32:AJ94 E191:AJ194 F195:AJ195 E196:AJ196 E197:J197 L197:AJ197 E198:AJ1048576">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C1048576 C2:C3">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36045,7 +36045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576 D2:D3">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36057,66 +36057,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AK160:AR180 AN157:AR159 AK184:AR1048576">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AR4">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK149:AM151">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK157:AM159">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181:AJ183">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK181:AR183">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE190">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:H31">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:H151">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:H159">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:H95">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
+  <conditionalFormatting sqref="K197">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A5CD7D-AC53-460C-8461-426A14FE264A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF465EE2-2C58-4AD4-8688-69B785011363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="330">
   <si>
     <t>Instruction</t>
   </si>
@@ -1007,6 +1001,21 @@
   <si>
     <t>RAM_W</t>
   </si>
+  <si>
+    <t>[INTERRUPT]</t>
+  </si>
+  <si>
+    <t>CO_INTAdr-&gt;ROMA</t>
+  </si>
+  <si>
+    <t>RTRNI</t>
+  </si>
+  <si>
+    <t>INT_Reset</t>
+  </si>
+  <si>
+    <t>INT_Set</t>
+  </si>
 </sst>
 </file>
 
@@ -1449,7 +1458,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1871,8 +1908,8 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ174" sqref="AJ174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,7 +2025,9 @@
       <c r="K2" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
       </c>
@@ -2055,8 +2094,12 @@
       <c r="AH2" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="18"/>
+      <c r="AI2" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>328</v>
+      </c>
       <c r="AK2" s="15" t="s">
         <v>324</v>
       </c>
@@ -24472,7 +24515,7 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -24624,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" s="9">
         <v>0</v>
@@ -24651,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="Q174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R174" s="9">
         <v>0</v>
@@ -24708,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="AJ174" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK174" s="8">
         <v>0</v>
@@ -24723,7 +24766,7 @@
         <v>0</v>
       </c>
       <c r="AO174" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP174" s="9">
         <v>0</v>
@@ -24746,121 +24789,121 @@
         <v>2</v>
       </c>
       <c r="E175" s="8">
+        <v>0</v>
+      </c>
+      <c r="F175" s="9">
+        <v>0</v>
+      </c>
+      <c r="G175" s="9">
+        <v>0</v>
+      </c>
+      <c r="H175" s="9">
+        <v>0</v>
+      </c>
+      <c r="I175" s="9">
+        <v>0</v>
+      </c>
+      <c r="J175" s="9">
+        <v>0</v>
+      </c>
+      <c r="K175" s="9">
+        <v>0</v>
+      </c>
+      <c r="L175" s="10">
+        <v>0</v>
+      </c>
+      <c r="M175" s="8">
+        <v>0</v>
+      </c>
+      <c r="N175" s="9">
+        <v>0</v>
+      </c>
+      <c r="O175" s="9">
+        <v>0</v>
+      </c>
+      <c r="P175" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="9">
+        <v>0</v>
+      </c>
+      <c r="R175" s="9">
+        <v>0</v>
+      </c>
+      <c r="S175" s="9">
+        <v>0</v>
+      </c>
+      <c r="T175" s="10">
+        <v>0</v>
+      </c>
+      <c r="U175" s="8">
+        <v>0</v>
+      </c>
+      <c r="V175" s="9">
+        <v>0</v>
+      </c>
+      <c r="W175" s="9">
+        <v>0</v>
+      </c>
+      <c r="X175" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ175" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP175" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ175" s="9">
         <v>1</v>
-      </c>
-      <c r="F175" s="9">
-        <v>0</v>
-      </c>
-      <c r="G175" s="9">
-        <v>0</v>
-      </c>
-      <c r="H175" s="9">
-        <v>0</v>
-      </c>
-      <c r="I175" s="9">
-        <v>1</v>
-      </c>
-      <c r="J175" s="9">
-        <v>0</v>
-      </c>
-      <c r="K175" s="9">
-        <v>0</v>
-      </c>
-      <c r="L175" s="10">
-        <v>0</v>
-      </c>
-      <c r="M175" s="8">
-        <v>0</v>
-      </c>
-      <c r="N175" s="9">
-        <v>1</v>
-      </c>
-      <c r="O175" s="9">
-        <v>0</v>
-      </c>
-      <c r="P175" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="9">
-        <v>0</v>
-      </c>
-      <c r="R175" s="9">
-        <v>0</v>
-      </c>
-      <c r="S175" s="9">
-        <v>0</v>
-      </c>
-      <c r="T175" s="10">
-        <v>0</v>
-      </c>
-      <c r="U175" s="8">
-        <v>0</v>
-      </c>
-      <c r="V175" s="9">
-        <v>0</v>
-      </c>
-      <c r="W175" s="9">
-        <v>0</v>
-      </c>
-      <c r="X175" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y175" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB175" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC175" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ175" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK175" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ175" s="9">
-        <v>0</v>
       </c>
       <c r="AR175" s="10">
         <v>0</v>
@@ -24916,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="R176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="9">
         <v>0</v>
@@ -24985,7 +25028,7 @@
         <v>0</v>
       </c>
       <c r="AO176" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP176" s="9">
         <v>0</v>
@@ -25008,7 +25051,7 @@
         <v>4</v>
       </c>
       <c r="E177" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="9">
         <v>0</v>
@@ -25023,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" s="9">
         <v>0</v>
@@ -25050,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="S177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T177" s="10">
         <v>0</v>
@@ -25122,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="AQ177" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR177" s="10">
         <v>0</v>
@@ -25522,8 +25565,8 @@
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A181" s="22" t="s">
-        <v>307</v>
+      <c r="A181" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -25747,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="AF182" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG182" s="9">
         <v>0</v>
@@ -25765,7 +25808,7 @@
         <v>0</v>
       </c>
       <c r="AL182" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM182" s="9">
         <v>0</v>
@@ -25824,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="N183" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O183" s="9">
         <v>0</v>
@@ -25878,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="AF183" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG183" s="9">
         <v>0</v>
@@ -25896,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="AL183" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM183" s="9">
         <v>0</v>
@@ -26574,7 +26617,7 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -26798,7 +26841,7 @@
         <v>0</v>
       </c>
       <c r="AF190" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG190" s="9">
         <v>0</v>
@@ -26816,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="AL190" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM190" s="9">
         <v>0</v>
@@ -26848,7 +26891,7 @@
         <v>2</v>
       </c>
       <c r="E191" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="9">
         <v>0</v>
@@ -26860,7 +26903,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="9">
         <v>0</v>
@@ -26926,11 +26969,11 @@
         <v>0</v>
       </c>
       <c r="AE191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF191" s="9">
         <v>1</v>
       </c>
-      <c r="AF191" s="9">
-        <v>0</v>
-      </c>
       <c r="AG191" s="9">
         <v>0</v>
       </c>
@@ -26947,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="AL191" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM191" s="9">
         <v>0</v>
@@ -26959,13 +27002,13 @@
         <v>0</v>
       </c>
       <c r="AP191" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ191" s="9">
         <v>0</v>
       </c>
       <c r="AR191" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.3">
@@ -27084,13 +27127,13 @@
         <v>0</v>
       </c>
       <c r="AN192" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO192" s="9">
         <v>0</v>
       </c>
       <c r="AP192" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ192" s="9">
         <v>0</v>
@@ -27221,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="AP193" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ193" s="9">
         <v>0</v>
@@ -27316,7 +27359,7 @@
         <v>0</v>
       </c>
       <c r="AD194" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE194" s="9">
         <v>0</v>
@@ -27352,13 +27395,13 @@
         <v>0</v>
       </c>
       <c r="AP194" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ194" s="9">
         <v>0</v>
       </c>
       <c r="AR194" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.3">
@@ -27371,7 +27414,7 @@
       <c r="D195" s="3">
         <v>6</v>
       </c>
-      <c r="E195" s="9">
+      <c r="E195" s="8">
         <v>0</v>
       </c>
       <c r="F195" s="9">
@@ -27477,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="AN195" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO195" s="9">
         <v>0</v>
       </c>
       <c r="AP195" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ195" s="9">
         <v>0</v>
@@ -27503,7 +27546,7 @@
         <v>7</v>
       </c>
       <c r="E196" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" s="9">
         <v>0</v>
@@ -27518,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K196" s="9">
         <v>0</v>
@@ -27575,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="AC196" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD196" s="9">
         <v>0</v>
@@ -27614,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="AP196" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ196" s="9">
         <v>0</v>
@@ -27625,7 +27668,7 @@
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -27768,22 +27811,22 @@
         <v>1</v>
       </c>
       <c r="E198" s="8">
+        <v>0</v>
+      </c>
+      <c r="F198" s="9">
+        <v>0</v>
+      </c>
+      <c r="G198" s="9">
+        <v>0</v>
+      </c>
+      <c r="H198" s="9">
         <v>1</v>
       </c>
-      <c r="F198" s="9">
-        <v>0</v>
-      </c>
-      <c r="G198" s="9">
-        <v>0</v>
-      </c>
-      <c r="H198" s="9">
-        <v>0</v>
-      </c>
       <c r="I198" s="9">
         <v>0</v>
       </c>
       <c r="J198" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" s="9">
         <v>1</v>
@@ -27840,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="AC198" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD198" s="9">
         <v>0</v>
@@ -27977,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="AE199" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF199" s="9">
         <v>0</v>
@@ -28010,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="AP199" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ199" s="9">
         <v>0</v>
       </c>
       <c r="AR199" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.3">
@@ -28135,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="AN200" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO200" s="9">
         <v>0</v>
       </c>
       <c r="AP200" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ200" s="9">
         <v>0</v>
@@ -28272,7 +28315,7 @@
         <v>0</v>
       </c>
       <c r="AP201" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ201" s="9">
         <v>0</v>
@@ -28367,7 +28410,7 @@
         <v>0</v>
       </c>
       <c r="AD202" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE202" s="9">
         <v>0</v>
@@ -28403,13 +28446,13 @@
         <v>0</v>
       </c>
       <c r="AP202" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ202" s="9">
         <v>0</v>
       </c>
       <c r="AR202" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.3">
@@ -28422,7 +28465,7 @@
       <c r="D203" s="3">
         <v>6</v>
       </c>
-      <c r="E203" s="8">
+      <c r="E203" s="9">
         <v>0</v>
       </c>
       <c r="F203" s="9">
@@ -28528,13 +28571,13 @@
         <v>0</v>
       </c>
       <c r="AN203" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO203" s="9">
         <v>0</v>
       </c>
       <c r="AP203" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ203" s="9">
         <v>0</v>
@@ -28554,7 +28597,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -28569,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" s="9">
         <v>0</v>
@@ -28626,7 +28669,7 @@
         <v>0</v>
       </c>
       <c r="AC204" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD204" s="9">
         <v>0</v>
@@ -28665,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="AP204" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ204" s="9">
         <v>0</v>
@@ -28675,6 +28718,9 @@
       </c>
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A205" s="22" t="s">
+        <v>264</v>
+      </c>
       <c r="B205" s="5" t="s">
         <v>207</v>
       </c>
@@ -28691,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="9">
         <v>0</v>
@@ -28816,7 +28862,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="9">
         <v>0</v>
@@ -28831,10 +28877,10 @@
         <v>0</v>
       </c>
       <c r="J206" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" s="10">
         <v>0</v>
@@ -28888,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="AC206" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD206" s="9">
         <v>0</v>
@@ -29198,7 +29244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B209" s="5" t="s">
         <v>211</v>
       </c>
@@ -29329,7 +29375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B210" s="5" t="s">
         <v>212</v>
       </c>
@@ -29460,7 +29506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B211" s="5" t="s">
         <v>213</v>
       </c>
@@ -29591,7 +29637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B212" s="5" t="s">
         <v>214</v>
       </c>
@@ -29722,7 +29768,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A213" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="B213" s="5" t="s">
         <v>215</v>
       </c>
@@ -29739,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="9">
         <v>0</v>
@@ -29853,7 +29902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B214" s="5" t="s">
         <v>216</v>
       </c>
@@ -29882,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K214" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="10">
         <v>0</v>
@@ -29942,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="AE214" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF214" s="9">
         <v>0</v>
@@ -29975,16 +30024,16 @@
         <v>0</v>
       </c>
       <c r="AP214" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ214" s="9">
         <v>0</v>
       </c>
       <c r="AR214" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B215" s="5" t="s">
         <v>217</v>
       </c>
@@ -30016,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="L215" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215" s="8">
         <v>0</v>
@@ -30100,13 +30149,13 @@
         <v>0</v>
       </c>
       <c r="AN215" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO215" s="9">
         <v>0</v>
       </c>
       <c r="AP215" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ215" s="9">
         <v>0</v>
@@ -30115,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B216" s="5" t="s">
         <v>218</v>
       </c>
@@ -30237,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="AP216" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ216" s="9">
         <v>0</v>
@@ -30246,7 +30295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
         <v>219</v>
       </c>
@@ -30332,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="AD217" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE217" s="9">
         <v>0</v>
@@ -30368,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="AP217" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ217" s="9">
         <v>0</v>
       </c>
       <c r="AR217" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B218" s="5" t="s">
         <v>220</v>
       </c>
@@ -30493,13 +30542,13 @@
         <v>0</v>
       </c>
       <c r="AN218" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO218" s="9">
         <v>0</v>
       </c>
       <c r="AP218" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ218" s="9">
         <v>0</v>
@@ -30508,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
         <v>221</v>
       </c>
@@ -30519,7 +30568,7 @@
         <v>6</v>
       </c>
       <c r="E219" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -30534,7 +30583,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" s="9">
         <v>0</v>
@@ -30609,7 +30658,7 @@
         <v>0</v>
       </c>
       <c r="AI219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ219" s="10">
         <v>0</v>
@@ -30630,7 +30679,7 @@
         <v>0</v>
       </c>
       <c r="AP219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ219" s="9">
         <v>0</v>
@@ -30639,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B220" s="5" t="s">
         <v>222</v>
       </c>
@@ -30770,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B221" s="5" t="s">
         <v>223</v>
       </c>
@@ -30901,7 +30950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B222" s="5" t="s">
         <v>224</v>
       </c>
@@ -31032,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B223" s="5" t="s">
         <v>225</v>
       </c>
@@ -31163,7 +31212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B224" s="5" t="s">
         <v>226</v>
       </c>
@@ -36022,18 +36071,18 @@
     <mergeCell ref="U4:AB4"/>
     <mergeCell ref="AC4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E184:AJ189 E190:AD190 AF190:AJ190 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E160:AJ180 I95:AJ95 E96:AJ150 E32:AJ94 E191:AJ194 F195:AJ195 E196:AJ196 E197:J197 L197:AJ197 E198:AJ1048576">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+  <conditionalFormatting sqref="E198:AD198 AF198:AJ198 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 I95:AJ95 E96:AJ150 E32:AJ94 E199:AJ202 F203:AJ203 E204:AJ204 E205:J205 L205:AJ205 E206:AJ1048576 E197:AJ197 E192:AR196 AK197:AR219 E160:AR172 E181:AR188">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C1048576 C2:C3">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36045,7 +36094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576 D2:D3">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36056,67 +36105,87 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AK160:AR180 AN157:AR159 AK184:AR1048576">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+  <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AN157:AR159 AK213:AR1048576">
+    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AR4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK149:AM151">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK157:AM159">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181:AJ183">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="E189:AJ191">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK181:AR183">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+  <conditionalFormatting sqref="AK189:AR191">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE190">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="AE198">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:H31">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:H151">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:H159">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:H95">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E213:AJ213 E214:AC214 AF214:AJ214 M219:AJ219">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD218:AE218">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E173:AJ180">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
+  <conditionalFormatting sqref="AK173:AR180">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF465EE2-2C58-4AD4-8688-69B785011363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDE561-DF1E-49E8-89A5-2D8F0311E592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
@@ -864,9 +864,6 @@
     <t>RegT_OE_DataL</t>
   </si>
   <si>
-    <t>ALU_DoBKomp</t>
-  </si>
-  <si>
     <t>ALU_OE</t>
   </si>
   <si>
@@ -1015,6 +1012,9 @@
   </si>
   <si>
     <t>INT_Set</t>
+  </si>
+  <si>
+    <t>ALU_DoBComp</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ174" sqref="AJ174"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,10 +2023,10 @@
         <v>267</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -2053,76 +2053,76 @@
         <v>278</v>
       </c>
       <c r="U2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="X2" s="16" t="s">
+      <c r="AA2" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC2" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AD2" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP2" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR2" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="AP2" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>47</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>55</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>71</v>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>79</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -15005,7 +15005,7 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -16063,7 +16063,7 @@
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>111</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>119</v>
@@ -18179,7 +18179,7 @@
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>127</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -21353,7 +21353,7 @@
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A149" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -22411,7 +22411,7 @@
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A157" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -23464,7 +23464,7 @@
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>167</v>
@@ -24515,7 +24515,7 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -26617,7 +26617,7 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -27668,7 +27668,7 @@
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -29770,7 +29770,7 @@
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>215</v>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDE561-DF1E-49E8-89A5-2D8F0311E592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2ABE98-4C3A-4EEF-B1CA-E2DCACE04DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
@@ -942,12 +942,6 @@
     <t>[AND/OR/XOR](L)</t>
   </si>
   <si>
-    <t>TB[S/R]R</t>
-  </si>
-  <si>
-    <t>TB[S/R]M</t>
-  </si>
-  <si>
     <t>CALL</t>
   </si>
   <si>
@@ -973,12 +967,6 @@
   </si>
   <si>
     <t>SVB</t>
-  </si>
-  <si>
-    <t>LDD[P/M]</t>
-  </si>
-  <si>
-    <t>SVD[P/M]</t>
   </si>
   <si>
     <t>HALT_CLR</t>
@@ -1015,6 +1003,18 @@
   </si>
   <si>
     <t>ALU_DoBComp</t>
+  </si>
+  <si>
+    <t>LDD[P/R]</t>
+  </si>
+  <si>
+    <t>SVD[P/R]</t>
+  </si>
+  <si>
+    <t>IF[S/R]M</t>
+  </si>
+  <si>
+    <t>IF[S/R]A</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
+      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,10 +2023,10 @@
         <v>267</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -2053,7 +2053,7 @@
         <v>278</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>279</v>
@@ -2065,7 +2065,7 @@
         <v>284</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Z2" s="16" t="s">
         <v>280</v>
@@ -2092,37 +2092,37 @@
         <v>288</v>
       </c>
       <c r="AH2" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AL2" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="AI2" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>310</v>
-      </c>
       <c r="AM2" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO2" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="AN2" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>311</v>
-      </c>
       <c r="AP2" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AQ2" s="17" t="s">
         <v>290</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -12889,7 +12889,7 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -13947,7 +13947,7 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -20295,7 +20295,7 @@
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -21353,7 +21353,7 @@
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A149" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -22411,7 +22411,7 @@
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A157" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -24515,7 +24515,7 @@
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -26617,7 +26617,7 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -27668,7 +27668,7 @@
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -29770,7 +29770,7 @@
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>215</v>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2ABE98-4C3A-4EEF-B1CA-E2DCACE04DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A227EE-2BF5-4926-84D0-7DF5DECD4846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="335">
   <si>
     <t>Instruction</t>
   </si>
@@ -906,12 +906,6 @@
     <t>SWP</t>
   </si>
   <si>
-    <t>PUSH</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
     <t>RTRN</t>
   </si>
   <si>
@@ -925,9 +919,6 @@
   </si>
   <si>
     <t>CPY</t>
-  </si>
-  <si>
-    <t>ADD(L)</t>
   </si>
   <si>
     <t>SHFT[R/L](L)</t>
@@ -1015,6 +1006,30 @@
   </si>
   <si>
     <t>IF[S/R]A</t>
+  </si>
+  <si>
+    <t>PUSHA</t>
+  </si>
+  <si>
+    <t>POPA</t>
+  </si>
+  <si>
+    <t>ADD/ADDLA</t>
+  </si>
+  <si>
+    <t>PUSHB</t>
+  </si>
+  <si>
+    <t>POPB</t>
+  </si>
+  <si>
+    <t>PUSHM</t>
+  </si>
+  <si>
+    <t>POPM</t>
+  </si>
+  <si>
+    <t>ADDLB</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1454,11 +1469,294 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1907,14 +2205,14 @@
   </sheetPr>
   <dimension ref="A1:AR260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE245" sqref="AE245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17" style="11" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" customWidth="1"/>
@@ -2023,10 +2321,10 @@
         <v>267</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -2053,7 +2351,7 @@
         <v>278</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>279</v>
@@ -2065,7 +2363,7 @@
         <v>284</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z2" s="16" t="s">
         <v>280</v>
@@ -2092,37 +2390,37 @@
         <v>288</v>
       </c>
       <c r="AH2" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO2" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="AI2" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>309</v>
-      </c>
       <c r="AP2" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AQ2" s="17" t="s">
         <v>290</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2308,7 +2606,7 @@
       <c r="AR4" s="34"/>
     </row>
     <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3366,7 +3664,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -4424,7 +4722,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>292</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5482,8 +5780,8 @@
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>293</v>
+      <c r="A29" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -6540,8 +6838,8 @@
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>294</v>
+      <c r="A37" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -7598,8 +7896,8 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>295</v>
+      <c r="A45" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>47</v>
@@ -8656,8 +8954,8 @@
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>296</v>
+      <c r="A53" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>55</v>
@@ -9714,8 +10012,8 @@
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>297</v>
+      <c r="A61" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -10772,8 +11070,8 @@
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
-        <v>298</v>
+      <c r="A69" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>71</v>
@@ -11830,8 +12128,8 @@
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
-        <v>299</v>
+      <c r="A77" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>79</v>
@@ -12888,8 +13186,8 @@
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A85" s="21" t="s">
-        <v>326</v>
+      <c r="A85" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -13946,8 +14244,8 @@
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A93" s="21" t="s">
-        <v>327</v>
+      <c r="A93" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -14099,7 +14397,7 @@
       <c r="G94" s="9">
         <v>0</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="9">
         <v>0</v>
       </c>
       <c r="I94" s="9">
@@ -14231,7 +14529,7 @@
       <c r="G95" s="9">
         <v>0</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="9">
         <v>0</v>
       </c>
       <c r="I95" s="9">
@@ -15004,8 +15302,8 @@
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
-        <v>300</v>
+      <c r="A101" s="38" t="s">
+        <v>329</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -16062,8 +16360,8 @@
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A109" s="21" t="s">
-        <v>301</v>
+      <c r="A109" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>111</v>
@@ -17120,8 +17418,8 @@
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A117" s="21" t="s">
-        <v>302</v>
+      <c r="A117" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>119</v>
@@ -18178,8 +18476,8 @@
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
-        <v>303</v>
+      <c r="A125" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>127</v>
@@ -19236,8 +19534,8 @@
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
-        <v>311</v>
+      <c r="A133" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -20294,8 +20592,8 @@
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="s">
-        <v>310</v>
+      <c r="A141" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -21352,8 +21650,8 @@
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A149" s="21" t="s">
-        <v>312</v>
+      <c r="A149" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -22410,8 +22708,8 @@
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A157" s="21" t="s">
-        <v>313</v>
+      <c r="A157" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -23463,8 +23761,8 @@
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
-        <v>304</v>
+      <c r="A165" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>167</v>
@@ -24514,8 +24812,8 @@
       </c>
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A173" s="11" t="s">
-        <v>322</v>
+      <c r="A173" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -25565,8 +25863,8 @@
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A181" s="11" t="s">
-        <v>329</v>
+      <c r="A181" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -25718,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="H182" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" s="9">
         <v>0</v>
@@ -25742,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="P182" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q182" s="9">
         <v>0</v>
@@ -25820,13 +26118,13 @@
         <v>0</v>
       </c>
       <c r="AP182" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ182" s="9">
         <v>0</v>
       </c>
       <c r="AR182" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.3">
@@ -25839,119 +26137,119 @@
       <c r="D183" s="3">
         <v>2</v>
       </c>
-      <c r="E183" s="8">
+      <c r="E183" s="9">
+        <v>0</v>
+      </c>
+      <c r="F183" s="9">
+        <v>0</v>
+      </c>
+      <c r="G183" s="9">
+        <v>0</v>
+      </c>
+      <c r="H183" s="10">
+        <v>0</v>
+      </c>
+      <c r="I183" s="9">
+        <v>0</v>
+      </c>
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="10">
+        <v>0</v>
+      </c>
+      <c r="M183" s="8">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+      <c r="O183" s="9">
+        <v>0</v>
+      </c>
+      <c r="P183" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="9">
+        <v>0</v>
+      </c>
+      <c r="R183" s="9">
+        <v>0</v>
+      </c>
+      <c r="S183" s="9">
+        <v>0</v>
+      </c>
+      <c r="T183" s="10">
+        <v>0</v>
+      </c>
+      <c r="U183" s="8">
+        <v>0</v>
+      </c>
+      <c r="V183" s="9">
+        <v>0</v>
+      </c>
+      <c r="W183" s="9">
+        <v>0</v>
+      </c>
+      <c r="X183" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC183" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ183" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK183" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO183" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP183" s="9">
         <v>1</v>
-      </c>
-      <c r="F183" s="9">
-        <v>0</v>
-      </c>
-      <c r="G183" s="9">
-        <v>0</v>
-      </c>
-      <c r="H183" s="9">
-        <v>0</v>
-      </c>
-      <c r="I183" s="9">
-        <v>1</v>
-      </c>
-      <c r="J183" s="9">
-        <v>0</v>
-      </c>
-      <c r="K183" s="9">
-        <v>0</v>
-      </c>
-      <c r="L183" s="10">
-        <v>0</v>
-      </c>
-      <c r="M183" s="8">
-        <v>0</v>
-      </c>
-      <c r="N183" s="9">
-        <v>1</v>
-      </c>
-      <c r="O183" s="9">
-        <v>0</v>
-      </c>
-      <c r="P183" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="9">
-        <v>0</v>
-      </c>
-      <c r="R183" s="9">
-        <v>0</v>
-      </c>
-      <c r="S183" s="9">
-        <v>0</v>
-      </c>
-      <c r="T183" s="10">
-        <v>0</v>
-      </c>
-      <c r="U183" s="8">
-        <v>0</v>
-      </c>
-      <c r="V183" s="9">
-        <v>0</v>
-      </c>
-      <c r="W183" s="9">
-        <v>0</v>
-      </c>
-      <c r="X183" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y183" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB183" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC183" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ183" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK183" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO183" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP183" s="9">
-        <v>0</v>
       </c>
       <c r="AQ183" s="9">
         <v>0</v>
@@ -25971,7 +26269,7 @@
         <v>3</v>
       </c>
       <c r="E184" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="9">
         <v>0</v>
@@ -25980,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="H184" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" s="9">
         <v>0</v>
@@ -26076,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="AN184" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO184" s="9">
         <v>0</v>
       </c>
       <c r="AP184" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ184" s="9">
         <v>0</v>
@@ -26617,7 +26915,7 @@
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -26790,7 +27088,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" s="9">
         <v>0</v>
@@ -26841,34 +27139,34 @@
         <v>0</v>
       </c>
       <c r="AF190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ190" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK190" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN190" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO190" s="9">
         <v>1</v>
-      </c>
-      <c r="AG190" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH190" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI190" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ190" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK190" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL190" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM190" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN190" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO190" s="9">
-        <v>0</v>
       </c>
       <c r="AP190" s="9">
         <v>0</v>
@@ -26903,109 +27201,109 @@
         <v>0</v>
       </c>
       <c r="I191" s="9">
+        <v>0</v>
+      </c>
+      <c r="J191" s="9">
+        <v>0</v>
+      </c>
+      <c r="K191" s="9">
+        <v>0</v>
+      </c>
+      <c r="L191" s="10">
+        <v>0</v>
+      </c>
+      <c r="M191" s="8">
+        <v>0</v>
+      </c>
+      <c r="N191" s="9">
+        <v>0</v>
+      </c>
+      <c r="O191" s="9">
+        <v>0</v>
+      </c>
+      <c r="P191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="9">
+        <v>0</v>
+      </c>
+      <c r="R191" s="9">
+        <v>0</v>
+      </c>
+      <c r="S191" s="9">
+        <v>0</v>
+      </c>
+      <c r="T191" s="10">
+        <v>0</v>
+      </c>
+      <c r="U191" s="8">
+        <v>0</v>
+      </c>
+      <c r="V191" s="9">
+        <v>0</v>
+      </c>
+      <c r="W191" s="9">
+        <v>0</v>
+      </c>
+      <c r="X191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB191" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC191" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ191" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK191" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP191" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ191" s="9">
         <v>1</v>
-      </c>
-      <c r="J191" s="9">
-        <v>0</v>
-      </c>
-      <c r="K191" s="9">
-        <v>0</v>
-      </c>
-      <c r="L191" s="10">
-        <v>0</v>
-      </c>
-      <c r="M191" s="8">
-        <v>0</v>
-      </c>
-      <c r="N191" s="9">
-        <v>0</v>
-      </c>
-      <c r="O191" s="9">
-        <v>0</v>
-      </c>
-      <c r="P191" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q191" s="9">
-        <v>0</v>
-      </c>
-      <c r="R191" s="9">
-        <v>0</v>
-      </c>
-      <c r="S191" s="9">
-        <v>0</v>
-      </c>
-      <c r="T191" s="10">
-        <v>0</v>
-      </c>
-      <c r="U191" s="8">
-        <v>0</v>
-      </c>
-      <c r="V191" s="9">
-        <v>0</v>
-      </c>
-      <c r="W191" s="9">
-        <v>0</v>
-      </c>
-      <c r="X191" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y191" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB191" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC191" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF191" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ191" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK191" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL191" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP191" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ191" s="9">
-        <v>0</v>
       </c>
       <c r="AR191" s="10">
         <v>0</v>
@@ -27668,7 +27966,7 @@
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A197" s="22" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -27820,7 +28118,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" s="9">
         <v>0</v>
@@ -27892,7 +28190,7 @@
         <v>0</v>
       </c>
       <c r="AF198" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG198" s="9">
         <v>0</v>
@@ -27910,7 +28208,7 @@
         <v>0</v>
       </c>
       <c r="AL198" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM198" s="9">
         <v>0</v>
@@ -27977,8 +28275,8 @@
       <c r="P199" s="9">
         <v>0</v>
       </c>
-      <c r="Q199" s="9">
-        <v>0</v>
+      <c r="Q199" s="8">
+        <v>1</v>
       </c>
       <c r="R199" s="9">
         <v>0</v>
@@ -28020,11 +28318,11 @@
         <v>0</v>
       </c>
       <c r="AE199" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF199" s="9">
         <v>1</v>
       </c>
-      <c r="AF199" s="9">
-        <v>0</v>
-      </c>
       <c r="AG199" s="9">
         <v>0</v>
       </c>
@@ -28041,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="AL199" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM199" s="9">
         <v>0</v>
@@ -28053,13 +28351,13 @@
         <v>0</v>
       </c>
       <c r="AP199" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ199" s="9">
         <v>0</v>
       </c>
       <c r="AR199" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.3">
@@ -28117,8 +28415,8 @@
       <c r="S200" s="9">
         <v>0</v>
       </c>
-      <c r="T200" s="10">
-        <v>0</v>
+      <c r="T200" s="9">
+        <v>1</v>
       </c>
       <c r="U200" s="8">
         <v>0</v>
@@ -28178,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="AN200" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO200" s="9">
         <v>0</v>
@@ -28190,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="AR200" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.3">
@@ -28335,7 +28633,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="9">
         <v>0</v>
@@ -28344,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" s="9">
         <v>0</v>
@@ -28410,37 +28708,37 @@
         <v>0</v>
       </c>
       <c r="AD202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ202" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK202" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN202" s="9">
         <v>1</v>
-      </c>
-      <c r="AE202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ202" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK202" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM202" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN202" s="9">
-        <v>0</v>
       </c>
       <c r="AO202" s="9">
         <v>0</v>
@@ -28452,7 +28750,7 @@
         <v>0</v>
       </c>
       <c r="AR202" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.3">
@@ -28465,7 +28763,7 @@
       <c r="D203" s="3">
         <v>6</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="8">
         <v>0</v>
       </c>
       <c r="F203" s="9">
@@ -28571,13 +28869,13 @@
         <v>0</v>
       </c>
       <c r="AN203" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO203" s="9">
         <v>0</v>
       </c>
       <c r="AP203" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ203" s="9">
         <v>0</v>
@@ -28597,7 +28895,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="9">
         <v>0</v>
@@ -28612,7 +28910,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204" s="9">
         <v>0</v>
@@ -28669,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="AC204" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD204" s="9">
         <v>0</v>
@@ -28708,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="AP204" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ204" s="9">
         <v>0</v>
@@ -28719,7 +29017,7 @@
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A205" s="22" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>207</v>
@@ -28862,7 +29160,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" s="9">
         <v>0</v>
@@ -28877,7 +29175,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" s="9">
         <v>1</v>
@@ -28898,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="Q206" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206" s="9">
         <v>0</v>
@@ -28934,43 +29232,43 @@
         <v>0</v>
       </c>
       <c r="AC206" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO206" s="9">
         <v>1</v>
-      </c>
-      <c r="AD206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ206" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK206" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN206" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO206" s="9">
-        <v>0</v>
       </c>
       <c r="AP206" s="9">
         <v>0</v>
@@ -29037,8 +29335,8 @@
       <c r="S207" s="9">
         <v>0</v>
       </c>
-      <c r="T207" s="10">
-        <v>0</v>
+      <c r="T207" s="9">
+        <v>1</v>
       </c>
       <c r="U207" s="8">
         <v>0</v>
@@ -29074,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="AF207" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG207" s="9">
         <v>0</v>
@@ -29095,7 +29393,7 @@
         <v>0</v>
       </c>
       <c r="AM207" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN207" s="9">
         <v>0</v>
@@ -29168,8 +29466,8 @@
       <c r="S208" s="9">
         <v>0</v>
       </c>
-      <c r="T208" s="10">
-        <v>0</v>
+      <c r="T208" s="9">
+        <v>1</v>
       </c>
       <c r="U208" s="8">
         <v>0</v>
@@ -29205,7 +29503,7 @@
         <v>0</v>
       </c>
       <c r="AF208" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG208" s="9">
         <v>0</v>
@@ -29220,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="AK208" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL208" s="9">
         <v>0</v>
       </c>
       <c r="AM208" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN208" s="9">
         <v>0</v>
@@ -29299,8 +29597,8 @@
       <c r="S209" s="9">
         <v>0</v>
       </c>
-      <c r="T209" s="10">
-        <v>0</v>
+      <c r="T209" s="9">
+        <v>1</v>
       </c>
       <c r="U209" s="8">
         <v>0</v>
@@ -29336,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="AF209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG209" s="9">
         <v>0</v>
@@ -29357,7 +29655,7 @@
         <v>0</v>
       </c>
       <c r="AM209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN209" s="9">
         <v>0</v>
@@ -29648,7 +29946,7 @@
         <v>7</v>
       </c>
       <c r="E212" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" s="9">
         <v>0</v>
@@ -29657,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" s="9">
         <v>0</v>
@@ -29769,8 +30067,8 @@
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A213" s="11" t="s">
-        <v>320</v>
+      <c r="A213" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>215</v>
@@ -29940,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="N214" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O214" s="9">
         <v>0</v>
@@ -29949,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="Q214" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R214" s="9">
         <v>0</v>
@@ -29991,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="AE214" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF214" s="9">
         <v>0</v>
@@ -30024,13 +30322,13 @@
         <v>0</v>
       </c>
       <c r="AP214" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ214" s="9">
         <v>0</v>
       </c>
       <c r="AR214" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.3">
@@ -30065,11 +30363,11 @@
         <v>0</v>
       </c>
       <c r="L215" s="10">
+        <v>0</v>
+      </c>
+      <c r="M215" s="8">
         <v>1</v>
       </c>
-      <c r="M215" s="8">
-        <v>0</v>
-      </c>
       <c r="N215" s="9">
         <v>0</v>
       </c>
@@ -30077,7 +30375,7 @@
         <v>0</v>
       </c>
       <c r="P215" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q215" s="9">
         <v>0</v>
@@ -30149,13 +30447,13 @@
         <v>0</v>
       </c>
       <c r="AN215" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO215" s="9">
         <v>0</v>
       </c>
       <c r="AP215" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ215" s="9">
         <v>0</v>
@@ -30205,7 +30503,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P216" s="9">
         <v>0</v>
@@ -30226,10 +30524,10 @@
         <v>0</v>
       </c>
       <c r="V216" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W216" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X216" s="9">
         <v>0</v>
@@ -30286,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="AP216" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ216" s="9">
         <v>0</v>
@@ -30306,7 +30604,7 @@
         <v>4</v>
       </c>
       <c r="E217" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" s="9">
         <v>0</v>
@@ -30315,7 +30613,7 @@
         <v>0</v>
       </c>
       <c r="H217" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" s="9">
         <v>0</v>
@@ -30330,7 +30628,7 @@
         <v>0</v>
       </c>
       <c r="M217" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N217" s="9">
         <v>0</v>
@@ -30351,7 +30649,7 @@
         <v>0</v>
       </c>
       <c r="T217" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U217" s="8">
         <v>0</v>
@@ -30381,7 +30679,7 @@
         <v>0</v>
       </c>
       <c r="AD217" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE217" s="9">
         <v>0</v>
@@ -30417,13 +30715,13 @@
         <v>0</v>
       </c>
       <c r="AP217" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ217" s="9">
         <v>0</v>
       </c>
       <c r="AR217" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.3">
@@ -30542,13 +30840,13 @@
         <v>0</v>
       </c>
       <c r="AN218" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO218" s="9">
         <v>0</v>
       </c>
       <c r="AP218" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ218" s="9">
         <v>0</v>
@@ -30568,7 +30866,7 @@
         <v>6</v>
       </c>
       <c r="E219" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" s="9">
         <v>0</v>
@@ -30583,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219" s="9">
         <v>0</v>
@@ -30658,7 +30956,7 @@
         <v>0</v>
       </c>
       <c r="AI219" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ219" s="10">
         <v>0</v>
@@ -30679,7 +30977,7 @@
         <v>0</v>
       </c>
       <c r="AP219" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ219" s="9">
         <v>0</v>
@@ -30820,6 +31118,9 @@
       </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A221" s="22" t="s">
+        <v>326</v>
+      </c>
       <c r="B221" s="5" t="s">
         <v>223</v>
       </c>
@@ -30836,7 +31137,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="9">
         <v>0</v>
@@ -30970,7 +31271,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" s="9">
         <v>0</v>
@@ -30979,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="K222" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L222" s="10">
         <v>0</v>
@@ -31092,7 +31393,7 @@
         <v>2</v>
       </c>
       <c r="E223" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" s="9">
         <v>0</v>
@@ -31104,7 +31405,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="9">
         <v>0</v>
@@ -31119,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="N223" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223" s="9">
         <v>0</v>
@@ -31343,7 +31644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B225" s="5" t="s">
         <v>227</v>
       </c>
@@ -31474,7 +31775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B226" s="5" t="s">
         <v>228</v>
       </c>
@@ -31605,7 +31906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B227" s="5" t="s">
         <v>229</v>
       </c>
@@ -31736,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B228" s="5" t="s">
         <v>230</v>
       </c>
@@ -31867,7 +32168,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A229" s="22" t="s">
+        <v>325</v>
+      </c>
       <c r="B229" s="5" t="s">
         <v>231</v>
       </c>
@@ -31884,7 +32188,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" s="9">
         <v>0</v>
@@ -31998,7 +32302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B230" s="5" t="s">
         <v>232</v>
       </c>
@@ -32018,7 +32322,7 @@
         <v>0</v>
       </c>
       <c r="H230" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" s="9">
         <v>0</v>
@@ -32027,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="K230" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" s="10">
         <v>0</v>
@@ -32090,7 +32394,7 @@
         <v>0</v>
       </c>
       <c r="AF230" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG230" s="9">
         <v>0</v>
@@ -32108,7 +32412,7 @@
         <v>0</v>
       </c>
       <c r="AL230" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM230" s="9">
         <v>0</v>
@@ -32129,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B231" s="5" t="s">
         <v>233</v>
       </c>
@@ -32140,7 +32444,7 @@
         <v>2</v>
       </c>
       <c r="E231" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="9">
         <v>0</v>
@@ -32152,7 +32456,7 @@
         <v>0</v>
       </c>
       <c r="I231" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="9">
         <v>0</v>
@@ -32221,7 +32525,7 @@
         <v>0</v>
       </c>
       <c r="AF231" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG231" s="9">
         <v>0</v>
@@ -32239,7 +32543,7 @@
         <v>0</v>
       </c>
       <c r="AL231" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM231" s="9">
         <v>0</v>
@@ -32260,7 +32564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B232" s="5" t="s">
         <v>234</v>
       </c>
@@ -32391,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B233" s="5" t="s">
         <v>235</v>
       </c>
@@ -32522,7 +32826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B234" s="5" t="s">
         <v>236</v>
       </c>
@@ -32653,7 +32957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B235" s="5" t="s">
         <v>237</v>
       </c>
@@ -32784,7 +33088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B236" s="5" t="s">
         <v>238</v>
       </c>
@@ -32915,7 +33219,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A237" s="22" t="s">
+        <v>302</v>
+      </c>
       <c r="B237" s="5" t="s">
         <v>239</v>
       </c>
@@ -32932,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" s="9">
         <v>0</v>
@@ -33046,7 +33353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B238" s="5" t="s">
         <v>240</v>
       </c>
@@ -33066,7 +33373,7 @@
         <v>0</v>
       </c>
       <c r="H238" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" s="9">
         <v>0</v>
@@ -33075,7 +33382,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238" s="10">
         <v>0</v>
@@ -33177,7 +33484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B239" s="5" t="s">
         <v>241</v>
       </c>
@@ -33266,7 +33573,7 @@
         <v>0</v>
       </c>
       <c r="AE239" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF239" s="9">
         <v>0</v>
@@ -33299,16 +33606,16 @@
         <v>0</v>
       </c>
       <c r="AP239" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ239" s="9">
         <v>0</v>
       </c>
       <c r="AR239" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B240" s="5" t="s">
         <v>242</v>
       </c>
@@ -33424,13 +33731,13 @@
         <v>0</v>
       </c>
       <c r="AN240" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO240" s="9">
         <v>0</v>
       </c>
       <c r="AP240" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ240" s="9">
         <v>0</v>
@@ -33439,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B241" s="5" t="s">
         <v>243</v>
       </c>
@@ -33561,7 +33868,7 @@
         <v>0</v>
       </c>
       <c r="AP241" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ241" s="9">
         <v>0</v>
@@ -33570,7 +33877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B242" s="5" t="s">
         <v>244</v>
       </c>
@@ -33656,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="AD242" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE242" s="9">
         <v>0</v>
@@ -33692,16 +33999,16 @@
         <v>0</v>
       </c>
       <c r="AP242" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ242" s="9">
         <v>0</v>
       </c>
       <c r="AR242" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B243" s="5" t="s">
         <v>245</v>
       </c>
@@ -33711,7 +34018,7 @@
       <c r="D243" s="3">
         <v>6</v>
       </c>
-      <c r="E243" s="8">
+      <c r="E243" s="9">
         <v>0</v>
       </c>
       <c r="F243" s="9">
@@ -33817,13 +34124,13 @@
         <v>0</v>
       </c>
       <c r="AN243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO243" s="9">
         <v>0</v>
       </c>
       <c r="AP243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ243" s="9">
         <v>0</v>
@@ -33832,7 +34139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B244" s="5" t="s">
         <v>246</v>
       </c>
@@ -33843,7 +34150,7 @@
         <v>7</v>
       </c>
       <c r="E244" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" s="9">
         <v>0</v>
@@ -33858,7 +34165,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" s="9">
         <v>0</v>
@@ -33915,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="AC244" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD244" s="9">
         <v>0</v>
@@ -33954,7 +34261,7 @@
         <v>0</v>
       </c>
       <c r="AP244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ244" s="9">
         <v>0</v>
@@ -33963,7 +34270,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A245" s="22" t="s">
+        <v>264</v>
+      </c>
       <c r="B245" s="5" t="s">
         <v>247</v>
       </c>
@@ -33980,7 +34290,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" s="9">
         <v>0</v>
@@ -34094,7 +34404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B246" s="5" t="s">
         <v>248</v>
       </c>
@@ -34105,7 +34415,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" s="9">
         <v>0</v>
@@ -34120,10 +34430,10 @@
         <v>0</v>
       </c>
       <c r="J246" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246" s="10">
         <v>0</v>
@@ -34177,7 +34487,7 @@
         <v>0</v>
       </c>
       <c r="AC246" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD246" s="9">
         <v>0</v>
@@ -34225,7 +34535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B247" s="5" t="s">
         <v>249</v>
       </c>
@@ -34356,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B248" s="5" t="s">
         <v>250</v>
       </c>
@@ -34487,7 +34797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B249" s="5" t="s">
         <v>251</v>
       </c>
@@ -34618,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B250" s="5" t="s">
         <v>252</v>
       </c>
@@ -34749,7 +35059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B251" s="5" t="s">
         <v>253</v>
       </c>
@@ -34880,7 +35190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B252" s="5" t="s">
         <v>254</v>
       </c>
@@ -35011,7 +35321,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A253" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="B253" s="5" t="s">
         <v>255</v>
       </c>
@@ -35028,7 +35341,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="9">
         <v>0</v>
@@ -35142,7 +35455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B254" s="5" t="s">
         <v>256</v>
       </c>
@@ -35171,7 +35484,7 @@
         <v>0</v>
       </c>
       <c r="K254" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L254" s="10">
         <v>0</v>
@@ -35231,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="AE254" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF254" s="9">
         <v>0</v>
@@ -35264,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="AP254" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ254" s="9">
         <v>0</v>
       </c>
       <c r="AR254" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B255" s="5" t="s">
         <v>257</v>
       </c>
@@ -35305,7 +35618,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255" s="8">
         <v>0</v>
@@ -35389,13 +35702,13 @@
         <v>0</v>
       </c>
       <c r="AN255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO255" s="9">
         <v>0</v>
       </c>
       <c r="AP255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ255" s="9">
         <v>0</v>
@@ -35404,7 +35717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B256" s="5" t="s">
         <v>258</v>
       </c>
@@ -35526,7 +35839,7 @@
         <v>0</v>
       </c>
       <c r="AP256" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ256" s="9">
         <v>0</v>
@@ -35621,7 +35934,7 @@
         <v>0</v>
       </c>
       <c r="AD257" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE257" s="9">
         <v>0</v>
@@ -35657,13 +35970,13 @@
         <v>0</v>
       </c>
       <c r="AP257" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ257" s="9">
         <v>0</v>
       </c>
       <c r="AR257" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="2:44" x14ac:dyDescent="0.3">
@@ -35782,13 +36095,13 @@
         <v>0</v>
       </c>
       <c r="AN258" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO258" s="9">
         <v>0</v>
       </c>
       <c r="AP258" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ258" s="9">
         <v>0</v>
@@ -35808,7 +36121,7 @@
         <v>6</v>
       </c>
       <c r="E259" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="9">
         <v>0</v>
@@ -35823,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K259" s="9">
         <v>0</v>
@@ -35898,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="AI259" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ259" s="10">
         <v>0</v>
@@ -35919,7 +36232,7 @@
         <v>0</v>
       </c>
       <c r="AP259" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ259" s="9">
         <v>0</v>
@@ -35939,121 +36252,121 @@
         <v>7</v>
       </c>
       <c r="E260" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="9">
         <v>0</v>
       </c>
       <c r="G260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" s="9">
         <v>0</v>
       </c>
       <c r="I260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" s="9">
         <v>0</v>
       </c>
       <c r="K260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L260" s="10">
         <v>0</v>
       </c>
       <c r="M260" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N260" s="9">
         <v>0</v>
       </c>
       <c r="O260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P260" s="9">
         <v>0</v>
       </c>
       <c r="Q260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R260" s="9">
         <v>0</v>
       </c>
       <c r="S260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T260" s="10">
         <v>0</v>
       </c>
       <c r="U260" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V260" s="9">
         <v>0</v>
       </c>
       <c r="W260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X260" s="9">
         <v>0</v>
       </c>
       <c r="Y260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z260" s="9">
         <v>0</v>
       </c>
       <c r="AA260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB260" s="10">
         <v>0</v>
       </c>
       <c r="AC260" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD260" s="9">
         <v>0</v>
       </c>
       <c r="AE260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF260" s="9">
         <v>0</v>
       </c>
       <c r="AG260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH260" s="9">
         <v>0</v>
       </c>
       <c r="AI260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ260" s="10">
         <v>0</v>
       </c>
       <c r="AK260" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL260" s="9">
         <v>0</v>
       </c>
       <c r="AM260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN260" s="9">
         <v>0</v>
       </c>
       <c r="AO260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP260" s="9">
         <v>0</v>
       </c>
       <c r="AQ260" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR260" s="10">
         <v>0</v>
@@ -36071,18 +36384,18 @@
     <mergeCell ref="U4:AB4"/>
     <mergeCell ref="AC4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E198:AD198 AF198:AJ198 E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 I95:AJ95 E96:AJ150 E32:AJ94 E199:AJ202 F203:AJ203 E204:AJ204 E205:J205 L205:AJ205 E206:AJ1048576 E197:AJ197 E192:AR196 AK197:AR219 E160:AR172 E181:AR188">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+  <conditionalFormatting sqref="E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E96:AJ150 E32:AJ93 E192:AR196 E160:AR172 E261:AJ1048576 AK237:AR246 E185:AR188 E221:AR223 E94:G94 I94:AJ95 E213:AJ213 X214:AJ214 E215:N215 P215:AJ215 I214:U214 E197:AJ198 I199:L199 P201:AJ202 R200 T200:AJ200 N199:AJ199 I216:AJ216 E217:AJ252 E203:AR203 I204:AR204 E202:H202 E205:AJ205 E206:G206 I206:N206 P206:AJ206 I207:L207 E210:AR212 E208:L209 M207:M209 O207:AJ209">
+    <cfRule type="cellIs" dxfId="58" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C1048576 C2:C3">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36094,7 +36407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576 D2:D3">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36105,87 +36418,287 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AN157:AR159 AK213:AR1048576">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
+  <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AN157:AR159 AK220:AR252 AK261:AR1048576">
+    <cfRule type="cellIs" dxfId="56" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AR4">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK149:AM151">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK157:AM159">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="84" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E229:AJ231">
+    <cfRule type="cellIs" dxfId="52" priority="81" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK229:AR231">
+    <cfRule type="cellIs" dxfId="51" priority="80" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE238">
+    <cfRule type="cellIs" dxfId="50" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:H31">
+    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:H151">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159:H159">
+    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E243">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K245">
+    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173:AJ180">
+    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK173:AR180">
+    <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253:AR259">
+    <cfRule type="cellIs" dxfId="41" priority="62" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK253:AR259">
+    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253:AJ253 E254:AC254 AF254:AJ254 M259:AJ259">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD258:AE258">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E260:L260">
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M260:T260">
+    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U260:AB260">
+    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC260:AJ260">
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK215:AR219">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK260:AR260">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203:AR203 E200:O202">
+    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200:O200">
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201:O202">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181:AJ182 I183:AJ183 E184:AJ184">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK181:AR184">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183:H183">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189:AJ191">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK189:AR191">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE198">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+  <conditionalFormatting sqref="H94:H95">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:H31">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+  <conditionalFormatting sqref="AK213:AR214">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151:H151">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+  <conditionalFormatting sqref="V214:W214">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159:H159">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+  <conditionalFormatting sqref="O215">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:H95">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+  <conditionalFormatting sqref="E214:H214">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+  <conditionalFormatting sqref="AK197:AR199">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+  <conditionalFormatting sqref="M199">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E213:AJ213 E214:AC214 AF214:AJ214 M219:AJ219">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+  <conditionalFormatting sqref="E199:H199">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD218:AE218">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="E199:H199">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E173:AJ180">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="AK200:AR202">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK173:AR180">
+  <conditionalFormatting sqref="P200">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q200">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S200">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E216:H216">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E204:H204">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E204:H204">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK205:AR206">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H206">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O206">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207:G207">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H207">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK207:AM208">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK209:AR209 AN207:AR208">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N207:N209">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A227EE-2BF5-4926-84D0-7DF5DECD4846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66A32C-F5CB-49D0-998C-2CB5DC1DFA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -1424,6 +1424,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1467,9 +1470,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2206,8 +2206,8 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE245" sqref="AE245"/>
+      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P205" sqref="P205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,16 +2290,16 @@
       <c r="AR1" s="12"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2424,10 +2424,10 @@
       </c>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="19">
         <v>0</v>
       </c>
@@ -2550,60 +2550,60 @@
       </c>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="35" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="32" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="32" t="s">
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="32" t="s">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="35"/>
     </row>
     <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -15302,7 +15302,7 @@
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A101" s="38" t="s">
+      <c r="A101" s="23" t="s">
         <v>329</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="AQ207" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR207" s="10">
         <v>0</v>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A66A32C-F5CB-49D0-998C-2CB5DC1DFA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59EAED0-0F80-4B17-BDC0-D76C1E493D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -912,9 +912,6 @@
     <t>SUB</t>
   </si>
   <si>
-    <t>KOMPB</t>
-  </si>
-  <si>
     <t>NOTA</t>
   </si>
   <si>
@@ -1030,6 +1027,9 @@
   </si>
   <si>
     <t>ADDLB</t>
+  </si>
+  <si>
+    <t>COMPB</t>
   </si>
 </sst>
 </file>
@@ -2206,22 +2206,22 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P205" sqref="P205"/>
+      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.3046875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.53515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" customWidth="1"/>
     <col min="5" max="5" width="3" style="8" customWidth="1"/>
     <col min="6" max="11" width="3" style="9" customWidth="1"/>
     <col min="12" max="12" width="3" style="10" customWidth="1"/>
     <col min="13" max="13" width="3" style="8" customWidth="1"/>
     <col min="14" max="15" width="3" style="9" customWidth="1"/>
-    <col min="16" max="16" width="2.88671875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="2.84375" style="9" customWidth="1"/>
     <col min="17" max="19" width="3" style="9" customWidth="1"/>
     <col min="20" max="20" width="3" style="10" customWidth="1"/>
     <col min="21" max="21" width="3" style="8" customWidth="1"/>
@@ -2235,7 +2235,7 @@
     <col min="44" max="44" width="3" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11">
         <v>4</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="AQ1" s="7"/>
       <c r="AR1" s="12"/>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2321,10 +2321,10 @@
         <v>267</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -2351,7 +2351,7 @@
         <v>278</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>279</v>
@@ -2363,7 +2363,7 @@
         <v>284</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="16" t="s">
         <v>280</v>
@@ -2390,40 +2390,40 @@
         <v>288</v>
       </c>
       <c r="AH2" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM2" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="AI2" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AN2" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO2" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AM2" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>306</v>
-      </c>
       <c r="AP2" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AQ2" s="17" t="s">
         <v>290</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="28"/>
       <c r="C3" s="31"/>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
       <c r="B4" s="29"/>
       <c r="C4" s="32"/>
@@ -2605,7 +2605,7 @@
       <c r="AQ4" s="34"/>
       <c r="AR4" s="35"/>
     </row>
-    <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
         <v>263</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>22</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>292</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
         <v>25</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>27</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>28</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>29</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -5779,9 +5779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>32</v>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>33</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>34</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A33" s="21"/>
       <c r="B33" s="5" t="s">
         <v>35</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>36</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>38</v>
@@ -6837,9 +6837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A37" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>42</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
         <v>43</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
         <v>44</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A43" s="21"/>
       <c r="B43" s="5" t="s">
         <v>45</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
         <v>46</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A45" s="22" t="s">
         <v>293</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
         <v>48</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>49</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
         <v>50</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A49" s="21"/>
       <c r="B49" s="5" t="s">
         <v>51</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A50" s="21"/>
       <c r="B50" s="5" t="s">
         <v>52</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
         <v>53</v>
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
         <v>54</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A53" s="22" t="s">
         <v>294</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A54" s="21"/>
       <c r="B54" s="5" t="s">
         <v>56</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>57</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
         <v>58</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>59</v>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>60</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
         <v>61</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>62</v>
@@ -10011,9 +10011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A61" s="22" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>64</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>65</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
         <v>66</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
         <v>67</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>68</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
         <v>69</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A68" s="21"/>
       <c r="B68" s="5" t="s">
         <v>70</v>
@@ -11069,9 +11069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A69" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>71</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
         <v>72</v>
@@ -11335,7 +11335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A71" s="21"/>
       <c r="B71" s="5" t="s">
         <v>73</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A72" s="21"/>
       <c r="B72" s="5" t="s">
         <v>74</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A73" s="21"/>
       <c r="B73" s="5" t="s">
         <v>75</v>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A74" s="21"/>
       <c r="B74" s="5" t="s">
         <v>76</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A75" s="21"/>
       <c r="B75" s="5" t="s">
         <v>77</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A76" s="21"/>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -12127,9 +12127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A77" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>79</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A78" s="21"/>
       <c r="B78" s="5" t="s">
         <v>80</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A79" s="21"/>
       <c r="B79" s="5" t="s">
         <v>81</v>
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A80" s="21"/>
       <c r="B80" s="5" t="s">
         <v>82</v>
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A81" s="21"/>
       <c r="B81" s="5" t="s">
         <v>83</v>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A82" s="21"/>
       <c r="B82" s="5" t="s">
         <v>84</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A83" s="21"/>
       <c r="B83" s="5" t="s">
         <v>85</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A84" s="21"/>
       <c r="B84" s="5" t="s">
         <v>86</v>
@@ -13185,9 +13185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A85" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="5" t="s">
         <v>88</v>
@@ -13451,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A87" s="21"/>
       <c r="B87" s="5" t="s">
         <v>89</v>
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A88" s="21"/>
       <c r="B88" s="5" t="s">
         <v>90</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A89" s="21"/>
       <c r="B89" s="5" t="s">
         <v>91</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A90" s="21"/>
       <c r="B90" s="5" t="s">
         <v>92</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A91" s="21"/>
       <c r="B91" s="5" t="s">
         <v>93</v>
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A92" s="21"/>
       <c r="B92" s="5" t="s">
         <v>94</v>
@@ -14243,9 +14243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A93" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A94" s="21"/>
       <c r="B94" s="5" t="s">
         <v>96</v>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A95" s="21"/>
       <c r="B95" s="5" t="s">
         <v>97</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A96" s="21"/>
       <c r="B96" s="5" t="s">
         <v>98</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A97" s="21"/>
       <c r="B97" s="5" t="s">
         <v>99</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A98" s="21"/>
       <c r="B98" s="5" t="s">
         <v>100</v>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A99" s="21"/>
       <c r="B99" s="5" t="s">
         <v>101</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A100" s="21"/>
       <c r="B100" s="5" t="s">
         <v>102</v>
@@ -15301,9 +15301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A101" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A102" s="21"/>
       <c r="B102" s="5" t="s">
         <v>104</v>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A103" s="21"/>
       <c r="B103" s="5" t="s">
         <v>105</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A104" s="21"/>
       <c r="B104" s="5" t="s">
         <v>106</v>
@@ -15831,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A105" s="21"/>
       <c r="B105" s="5" t="s">
         <v>107</v>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A106" s="21"/>
       <c r="B106" s="5" t="s">
         <v>108</v>
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A107" s="21"/>
       <c r="B107" s="5" t="s">
         <v>109</v>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A108" s="21"/>
       <c r="B108" s="5" t="s">
         <v>110</v>
@@ -16359,9 +16359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A109" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>111</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A110" s="21"/>
       <c r="B110" s="5" t="s">
         <v>112</v>
@@ -16625,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A111" s="21"/>
       <c r="B111" s="5" t="s">
         <v>113</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A112" s="21"/>
       <c r="B112" s="5" t="s">
         <v>114</v>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A113" s="21"/>
       <c r="B113" s="5" t="s">
         <v>115</v>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A114" s="21"/>
       <c r="B114" s="5" t="s">
         <v>116</v>
@@ -17153,7 +17153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A115" s="21"/>
       <c r="B115" s="5" t="s">
         <v>117</v>
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A116" s="21"/>
       <c r="B116" s="5" t="s">
         <v>118</v>
@@ -17417,9 +17417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A117" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>119</v>
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A118" s="21"/>
       <c r="B118" s="5" t="s">
         <v>120</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A119" s="21"/>
       <c r="B119" s="5" t="s">
         <v>121</v>
@@ -17815,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A120" s="21"/>
       <c r="B120" s="5" t="s">
         <v>122</v>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A121" s="21"/>
       <c r="B121" s="5" t="s">
         <v>123</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A122" s="21"/>
       <c r="B122" s="5" t="s">
         <v>124</v>
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A123" s="21"/>
       <c r="B123" s="5" t="s">
         <v>125</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A124" s="21"/>
       <c r="B124" s="5" t="s">
         <v>126</v>
@@ -18475,9 +18475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A125" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>127</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A126" s="21"/>
       <c r="B126" s="5" t="s">
         <v>128</v>
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A127" s="21"/>
       <c r="B127" s="5" t="s">
         <v>129</v>
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A128" s="21"/>
       <c r="B128" s="5" t="s">
         <v>130</v>
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A129" s="21"/>
       <c r="B129" s="5" t="s">
         <v>131</v>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A130" s="21"/>
       <c r="B130" s="5" t="s">
         <v>132</v>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A131" s="21"/>
       <c r="B131" s="5" t="s">
         <v>133</v>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A132" s="21"/>
       <c r="B132" s="5" t="s">
         <v>134</v>
@@ -19533,9 +19533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A133" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>135</v>
@@ -19667,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A134" s="21"/>
       <c r="B134" s="5" t="s">
         <v>136</v>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A135" s="21"/>
       <c r="B135" s="5" t="s">
         <v>137</v>
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A136" s="21"/>
       <c r="B136" s="5" t="s">
         <v>138</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A137" s="21"/>
       <c r="B137" s="5" t="s">
         <v>139</v>
@@ -20195,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A138" s="21"/>
       <c r="B138" s="5" t="s">
         <v>140</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A139" s="21"/>
       <c r="B139" s="5" t="s">
         <v>141</v>
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A140" s="21"/>
       <c r="B140" s="5" t="s">
         <v>142</v>
@@ -20591,9 +20591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A141" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>143</v>
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A142" s="21"/>
       <c r="B142" s="5" t="s">
         <v>144</v>
@@ -20857,7 +20857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A143" s="21"/>
       <c r="B143" s="5" t="s">
         <v>145</v>
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A144" s="21"/>
       <c r="B144" s="5" t="s">
         <v>146</v>
@@ -21121,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A145" s="21"/>
       <c r="B145" s="5" t="s">
         <v>147</v>
@@ -21253,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A146" s="21"/>
       <c r="B146" s="5" t="s">
         <v>148</v>
@@ -21385,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A147" s="21"/>
       <c r="B147" s="5" t="s">
         <v>149</v>
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A148" s="21"/>
       <c r="B148" s="5" t="s">
         <v>150</v>
@@ -21649,9 +21649,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A149" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>151</v>
@@ -21783,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A150" s="21"/>
       <c r="B150" s="5" t="s">
         <v>152</v>
@@ -21915,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A151" s="21"/>
       <c r="B151" s="5" t="s">
         <v>153</v>
@@ -22047,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A152" s="21"/>
       <c r="B152" s="5" t="s">
         <v>154</v>
@@ -22179,7 +22179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A153" s="21"/>
       <c r="B153" s="5" t="s">
         <v>155</v>
@@ -22311,7 +22311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A154" s="21"/>
       <c r="B154" s="5" t="s">
         <v>156</v>
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A155" s="21"/>
       <c r="B155" s="5" t="s">
         <v>157</v>
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A156" s="21"/>
       <c r="B156" s="5" t="s">
         <v>158</v>
@@ -22707,9 +22707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A157" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>159</v>
@@ -22841,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A158" s="21"/>
       <c r="B158" s="5" t="s">
         <v>160</v>
@@ -22973,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A159" s="21"/>
       <c r="B159" s="5" t="s">
         <v>161</v>
@@ -23105,7 +23105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B160" s="5" t="s">
         <v>162</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B161" s="5" t="s">
         <v>163</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B162" s="5" t="s">
         <v>164</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B163" s="5" t="s">
         <v>165</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B164" s="5" t="s">
         <v>166</v>
       </c>
@@ -23760,9 +23760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A165" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>167</v>
@@ -23894,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B166" s="5" t="s">
         <v>168</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B167" s="5" t="s">
         <v>169</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B168" s="5" t="s">
         <v>170</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B169" s="5" t="s">
         <v>171</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B170" s="5" t="s">
         <v>172</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B171" s="5" t="s">
         <v>173</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B172" s="5" t="s">
         <v>174</v>
       </c>
@@ -24811,9 +24811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A173" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>175</v>
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B174" s="5" t="s">
         <v>176</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B175" s="5" t="s">
         <v>177</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B176" s="5" t="s">
         <v>178</v>
       </c>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B177" s="5" t="s">
         <v>179</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B178" s="5" t="s">
         <v>180</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B179" s="5" t="s">
         <v>181</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B180" s="5" t="s">
         <v>182</v>
       </c>
@@ -25862,9 +25862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A181" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B182" s="5" t="s">
         <v>184</v>
       </c>
@@ -26127,7 +26127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B183" s="5" t="s">
         <v>185</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B184" s="5" t="s">
         <v>186</v>
       </c>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B185" s="5" t="s">
         <v>187</v>
       </c>
@@ -26520,7 +26520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B186" s="5" t="s">
         <v>188</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B187" s="5" t="s">
         <v>189</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B188" s="5" t="s">
         <v>190</v>
       </c>
@@ -26913,9 +26913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A189" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B190" s="5" t="s">
         <v>192</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B191" s="5" t="s">
         <v>193</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B192" s="5" t="s">
         <v>194</v>
       </c>
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B193" s="5" t="s">
         <v>195</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B194" s="5" t="s">
         <v>196</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B195" s="5" t="s">
         <v>197</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B196" s="5" t="s">
         <v>198</v>
       </c>
@@ -27964,9 +27964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A197" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B198" s="5" t="s">
         <v>200</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B199" s="5" t="s">
         <v>201</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B200" s="5" t="s">
         <v>202</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B201" s="5" t="s">
         <v>203</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B202" s="5" t="s">
         <v>204</v>
       </c>
@@ -28753,7 +28753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B203" s="5" t="s">
         <v>205</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B204" s="5" t="s">
         <v>206</v>
       </c>
@@ -29015,9 +29015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A205" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>207</v>
@@ -29149,7 +29149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B206" s="5" t="s">
         <v>208</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B207" s="5" t="s">
         <v>209</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B208" s="5" t="s">
         <v>210</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B209" s="5" t="s">
         <v>211</v>
       </c>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B210" s="5" t="s">
         <v>212</v>
       </c>
@@ -29804,7 +29804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B211" s="5" t="s">
         <v>213</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B212" s="5" t="s">
         <v>214</v>
       </c>
@@ -30066,9 +30066,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A213" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>215</v>
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B214" s="5" t="s">
         <v>216</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B215" s="5" t="s">
         <v>217</v>
       </c>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B216" s="5" t="s">
         <v>218</v>
       </c>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B217" s="5" t="s">
         <v>219</v>
       </c>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B218" s="5" t="s">
         <v>220</v>
       </c>
@@ -30855,7 +30855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B219" s="5" t="s">
         <v>221</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B220" s="5" t="s">
         <v>222</v>
       </c>
@@ -31117,9 +31117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A221" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>223</v>
@@ -31251,7 +31251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B222" s="5" t="s">
         <v>224</v>
       </c>
@@ -31382,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B223" s="5" t="s">
         <v>225</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B224" s="5" t="s">
         <v>226</v>
       </c>
@@ -31644,7 +31644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B225" s="5" t="s">
         <v>227</v>
       </c>
@@ -31775,7 +31775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B226" s="5" t="s">
         <v>228</v>
       </c>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B227" s="5" t="s">
         <v>229</v>
       </c>
@@ -32037,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B228" s="5" t="s">
         <v>230</v>
       </c>
@@ -32168,9 +32168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A229" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>231</v>
@@ -32302,7 +32302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B230" s="5" t="s">
         <v>232</v>
       </c>
@@ -32433,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B231" s="5" t="s">
         <v>233</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B232" s="5" t="s">
         <v>234</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B233" s="5" t="s">
         <v>235</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B234" s="5" t="s">
         <v>236</v>
       </c>
@@ -32957,7 +32957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B235" s="5" t="s">
         <v>237</v>
       </c>
@@ -33088,7 +33088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B236" s="5" t="s">
         <v>238</v>
       </c>
@@ -33219,9 +33219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A237" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>239</v>
@@ -33353,7 +33353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B238" s="5" t="s">
         <v>240</v>
       </c>
@@ -33484,7 +33484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B239" s="5" t="s">
         <v>241</v>
       </c>
@@ -33615,7 +33615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B240" s="5" t="s">
         <v>242</v>
       </c>
@@ -33746,7 +33746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B241" s="5" t="s">
         <v>243</v>
       </c>
@@ -33877,7 +33877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B242" s="5" t="s">
         <v>244</v>
       </c>
@@ -34008,7 +34008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B243" s="5" t="s">
         <v>245</v>
       </c>
@@ -34139,7 +34139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B244" s="5" t="s">
         <v>246</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A245" s="22" t="s">
         <v>264</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B246" s="5" t="s">
         <v>248</v>
       </c>
@@ -34535,7 +34535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B247" s="5" t="s">
         <v>249</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B248" s="5" t="s">
         <v>250</v>
       </c>
@@ -34797,7 +34797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B249" s="5" t="s">
         <v>251</v>
       </c>
@@ -34928,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B250" s="5" t="s">
         <v>252</v>
       </c>
@@ -35059,7 +35059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B251" s="5" t="s">
         <v>253</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B252" s="5" t="s">
         <v>254</v>
       </c>
@@ -35321,9 +35321,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A253" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>255</v>
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B254" s="5" t="s">
         <v>256</v>
       </c>
@@ -35586,7 +35586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B255" s="5" t="s">
         <v>257</v>
       </c>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.4">
       <c r="B256" s="5" t="s">
         <v>258</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B257" s="5" t="s">
         <v>259</v>
       </c>
@@ -35979,7 +35979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B258" s="5" t="s">
         <v>260</v>
       </c>
@@ -36110,7 +36110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B259" s="5" t="s">
         <v>261</v>
       </c>
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B260" s="5" t="s">
         <v>262</v>
       </c>

--- a/ROMGeneration/MicroCodeRoms.xlsx
+++ b/ROMGeneration/MicroCodeRoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschilk\home\Repos\psMCU\ROMGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59EAED0-0F80-4B17-BDC0-D76C1E493D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3264418-00E7-44D7-99C1-4C689C5F61E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{29B2112A-6599-40BB-9E31-9AC80386968F}"/>
   </bookViews>
   <sheets>
     <sheet name="ControlRoms" sheetId="1" r:id="rId1"/>
@@ -984,12 +984,6 @@
     <t>RTRNI</t>
   </si>
   <si>
-    <t>INT_Reset</t>
-  </si>
-  <si>
-    <t>INT_Set</t>
-  </si>
-  <si>
     <t>ALU_DoBComp</t>
   </si>
   <si>
@@ -1030,6 +1024,12 @@
   </si>
   <si>
     <t>COMPB</t>
+  </si>
+  <si>
+    <t>Int Override Clr</t>
+  </si>
+  <si>
+    <t>Int Clr</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1476,28 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2206,22 +2227,22 @@
   <dimension ref="A1:AR260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O258" sqref="O258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.3046875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.53515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="3" style="3" customWidth="1"/>
     <col min="5" max="5" width="3" style="8" customWidth="1"/>
     <col min="6" max="11" width="3" style="9" customWidth="1"/>
     <col min="12" max="12" width="3" style="10" customWidth="1"/>
     <col min="13" max="13" width="3" style="8" customWidth="1"/>
     <col min="14" max="15" width="3" style="9" customWidth="1"/>
-    <col min="16" max="16" width="2.84375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="2.81640625" style="9" customWidth="1"/>
     <col min="17" max="19" width="3" style="9" customWidth="1"/>
     <col min="20" max="20" width="3" style="10" customWidth="1"/>
     <col min="21" max="21" width="3" style="8" customWidth="1"/>
@@ -2235,7 +2256,7 @@
     <col min="44" max="44" width="3" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11">
         <v>4</v>
       </c>
@@ -2289,7 +2310,7 @@
       <c r="AQ1" s="7"/>
       <c r="AR1" s="12"/>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2345,7 @@
         <v>310</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>271</v>
@@ -2351,7 +2372,7 @@
         <v>278</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>279</v>
@@ -2396,7 +2417,7 @@
         <v>317</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="AK2" s="15" t="s">
         <v>315</v>
@@ -2423,7 +2444,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="28"/>
       <c r="C3" s="31"/>
@@ -2549,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26"/>
       <c r="B4" s="29"/>
       <c r="C4" s="32"/>
@@ -2605,7 +2626,7 @@
       <c r="AQ4" s="34"/>
       <c r="AR4" s="35"/>
     </row>
-    <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>263</v>
       </c>
@@ -2739,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -2871,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -3003,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
@@ -3135,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -3267,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -3399,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -3531,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -3663,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>270</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -3808,8 +3829,8 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
-        <v>1</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -3818,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -3929,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -3941,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
@@ -3950,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -4061,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -4193,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -4325,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -4457,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -4589,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="5" t="s">
         <v>22</v>
@@ -4721,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>292</v>
       </c>
@@ -4855,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -4987,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
         <v>25</v>
@@ -5119,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -5251,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="5" t="s">
         <v>27</v>
@@ -5383,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>28</v>
@@ -5515,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>29</v>
@@ -5647,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -5779,9 +5800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -5913,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>32</v>
@@ -6045,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="5" t="s">
         <v>33</v>
@@ -6177,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>34</v>
@@ -6309,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
       <c r="B33" s="5" t="s">
         <v>35</v>
@@ -6441,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>36</v>
@@ -6573,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
@@ -6705,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
       <c r="B36" s="5" t="s">
         <v>38</v>
@@ -6837,9 +6858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
@@ -6971,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
@@ -7103,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="21"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
@@ -7235,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>42</v>
@@ -7367,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
         <v>43</v>
@@ -7499,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
       <c r="B42" s="5" t="s">
         <v>44</v>
@@ -7631,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="21"/>
       <c r="B43" s="5" t="s">
         <v>45</v>
@@ -7763,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44" s="21"/>
       <c r="B44" s="5" t="s">
         <v>46</v>
@@ -7895,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>293</v>
       </c>
@@ -8029,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="21"/>
       <c r="B46" s="5" t="s">
         <v>48</v>
@@ -8161,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>49</v>
@@ -8293,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="21"/>
       <c r="B48" s="5" t="s">
         <v>50</v>
@@ -8425,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="21"/>
       <c r="B49" s="5" t="s">
         <v>51</v>
@@ -8557,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="21"/>
       <c r="B50" s="5" t="s">
         <v>52</v>
@@ -8689,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="21"/>
       <c r="B51" s="5" t="s">
         <v>53</v>
@@ -8821,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="21"/>
       <c r="B52" s="5" t="s">
         <v>54</v>
@@ -8953,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>294</v>
       </c>
@@ -9087,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="21"/>
       <c r="B54" s="5" t="s">
         <v>56</v>
@@ -9219,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="21"/>
       <c r="B55" s="5" t="s">
         <v>57</v>
@@ -9351,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="21"/>
       <c r="B56" s="5" t="s">
         <v>58</v>
@@ -9483,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="21"/>
       <c r="B57" s="5" t="s">
         <v>59</v>
@@ -9615,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="21"/>
       <c r="B58" s="5" t="s">
         <v>60</v>
@@ -9747,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="21"/>
       <c r="B59" s="5" t="s">
         <v>61</v>
@@ -9879,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60" s="21"/>
       <c r="B60" s="5" t="s">
         <v>62</v>
@@ -10011,9 +10032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>63</v>
@@ -10145,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A62" s="21"/>
       <c r="B62" s="5" t="s">
         <v>64</v>
@@ -10277,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A63" s="21"/>
       <c r="B63" s="5" t="s">
         <v>65</v>
@@ -10409,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="21"/>
       <c r="B64" s="5" t="s">
         <v>66</v>
@@ -10541,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="21"/>
       <c r="B65" s="5" t="s">
         <v>67</v>
@@ -10673,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A66" s="21"/>
       <c r="B66" s="5" t="s">
         <v>68</v>
@@ -10805,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="21"/>
       <c r="B67" s="5" t="s">
         <v>69</v>
@@ -10937,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="21"/>
       <c r="B68" s="5" t="s">
         <v>70</v>
@@ -11069,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>295</v>
       </c>
@@ -11203,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="21"/>
       <c r="B70" s="5" t="s">
         <v>72</v>
@@ -11335,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="21"/>
       <c r="B71" s="5" t="s">
         <v>73</v>
@@ -11467,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="21"/>
       <c r="B72" s="5" t="s">
         <v>74</v>
@@ -11599,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="21"/>
       <c r="B73" s="5" t="s">
         <v>75</v>
@@ -11731,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="21"/>
       <c r="B74" s="5" t="s">
         <v>76</v>
@@ -11863,7 +11884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A75" s="21"/>
       <c r="B75" s="5" t="s">
         <v>77</v>
@@ -11995,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="21"/>
       <c r="B76" s="5" t="s">
         <v>78</v>
@@ -12127,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="22" t="s">
         <v>296</v>
       </c>
@@ -12261,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="21"/>
       <c r="B78" s="5" t="s">
         <v>80</v>
@@ -12393,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A79" s="21"/>
       <c r="B79" s="5" t="s">
         <v>81</v>
@@ -12525,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="21"/>
       <c r="B80" s="5" t="s">
         <v>82</v>
@@ -12657,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="21"/>
       <c r="B81" s="5" t="s">
         <v>83</v>
@@ -12789,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="21"/>
       <c r="B82" s="5" t="s">
         <v>84</v>
@@ -12921,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A83" s="21"/>
       <c r="B83" s="5" t="s">
         <v>85</v>
@@ -13053,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="21"/>
       <c r="B84" s="5" t="s">
         <v>86</v>
@@ -13185,9 +13206,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>87</v>
@@ -13319,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="21"/>
       <c r="B86" s="5" t="s">
         <v>88</v>
@@ -13451,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="21"/>
       <c r="B87" s="5" t="s">
         <v>89</v>
@@ -13583,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="21"/>
       <c r="B88" s="5" t="s">
         <v>90</v>
@@ -13715,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="21"/>
       <c r="B89" s="5" t="s">
         <v>91</v>
@@ -13847,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A90" s="21"/>
       <c r="B90" s="5" t="s">
         <v>92</v>
@@ -13979,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="21"/>
       <c r="B91" s="5" t="s">
         <v>93</v>
@@ -14111,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
       <c r="B92" s="5" t="s">
         <v>94</v>
@@ -14243,9 +14264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>95</v>
@@ -14377,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="21"/>
       <c r="B94" s="5" t="s">
         <v>96</v>
@@ -14509,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="21"/>
       <c r="B95" s="5" t="s">
         <v>97</v>
@@ -14641,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A96" s="21"/>
       <c r="B96" s="5" t="s">
         <v>98</v>
@@ -14773,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="21"/>
       <c r="B97" s="5" t="s">
         <v>99</v>
@@ -14905,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A98" s="21"/>
       <c r="B98" s="5" t="s">
         <v>100</v>
@@ -15037,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" s="21"/>
       <c r="B99" s="5" t="s">
         <v>101</v>
@@ -15169,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="21"/>
       <c r="B100" s="5" t="s">
         <v>102</v>
@@ -15301,9 +15322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>103</v>
@@ -15435,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="21"/>
       <c r="B102" s="5" t="s">
         <v>104</v>
@@ -15567,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="21"/>
       <c r="B103" s="5" t="s">
         <v>105</v>
@@ -15699,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="21"/>
       <c r="B104" s="5" t="s">
         <v>106</v>
@@ -15831,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="21"/>
       <c r="B105" s="5" t="s">
         <v>107</v>
@@ -15963,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A106" s="21"/>
       <c r="B106" s="5" t="s">
         <v>108</v>
@@ -16095,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A107" s="21"/>
       <c r="B107" s="5" t="s">
         <v>109</v>
@@ -16227,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A108" s="21"/>
       <c r="B108" s="5" t="s">
         <v>110</v>
@@ -16359,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A109" s="22" t="s">
         <v>297</v>
       </c>
@@ -16493,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A110" s="21"/>
       <c r="B110" s="5" t="s">
         <v>112</v>
@@ -16625,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A111" s="21"/>
       <c r="B111" s="5" t="s">
         <v>113</v>
@@ -16757,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A112" s="21"/>
       <c r="B112" s="5" t="s">
         <v>114</v>
@@ -16889,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A113" s="21"/>
       <c r="B113" s="5" t="s">
         <v>115</v>
@@ -17021,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A114" s="21"/>
       <c r="B114" s="5" t="s">
         <v>116</v>
@@ -17153,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A115" s="21"/>
       <c r="B115" s="5" t="s">
         <v>117</v>
@@ -17285,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A116" s="21"/>
       <c r="B116" s="5" t="s">
         <v>118</v>
@@ -17417,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A117" s="22" t="s">
         <v>298</v>
       </c>
@@ -17551,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A118" s="21"/>
       <c r="B118" s="5" t="s">
         <v>120</v>
@@ -17683,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A119" s="21"/>
       <c r="B119" s="5" t="s">
         <v>121</v>
@@ -17815,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A120" s="21"/>
       <c r="B120" s="5" t="s">
         <v>122</v>
@@ -17947,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A121" s="21"/>
       <c r="B121" s="5" t="s">
         <v>123</v>
@@ -18079,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A122" s="21"/>
       <c r="B122" s="5" t="s">
         <v>124</v>
@@ -18211,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A123" s="21"/>
       <c r="B123" s="5" t="s">
         <v>125</v>
@@ -18343,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A124" s="21"/>
       <c r="B124" s="5" t="s">
         <v>126</v>
@@ -18475,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A125" s="22" t="s">
         <v>299</v>
       </c>
@@ -18609,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A126" s="21"/>
       <c r="B126" s="5" t="s">
         <v>128</v>
@@ -18741,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A127" s="21"/>
       <c r="B127" s="5" t="s">
         <v>129</v>
@@ -18873,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A128" s="21"/>
       <c r="B128" s="5" t="s">
         <v>130</v>
@@ -19005,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A129" s="21"/>
       <c r="B129" s="5" t="s">
         <v>131</v>
@@ -19137,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A130" s="21"/>
       <c r="B130" s="5" t="s">
         <v>132</v>
@@ -19269,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A131" s="21"/>
       <c r="B131" s="5" t="s">
         <v>133</v>
@@ -19401,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A132" s="21"/>
       <c r="B132" s="5" t="s">
         <v>134</v>
@@ -19533,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A133" s="22" t="s">
         <v>307</v>
       </c>
@@ -19667,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A134" s="21"/>
       <c r="B134" s="5" t="s">
         <v>136</v>
@@ -19799,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A135" s="21"/>
       <c r="B135" s="5" t="s">
         <v>137</v>
@@ -19931,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A136" s="21"/>
       <c r="B136" s="5" t="s">
         <v>138</v>
@@ -20063,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A137" s="21"/>
       <c r="B137" s="5" t="s">
         <v>139</v>
@@ -20195,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A138" s="21"/>
       <c r="B138" s="5" t="s">
         <v>140</v>
@@ -20327,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A139" s="21"/>
       <c r="B139" s="5" t="s">
         <v>141</v>
@@ -20459,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A140" s="21"/>
       <c r="B140" s="5" t="s">
         <v>142</v>
@@ -20591,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A141" s="22" t="s">
         <v>306</v>
       </c>
@@ -20725,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A142" s="21"/>
       <c r="B142" s="5" t="s">
         <v>144</v>
@@ -20857,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A143" s="21"/>
       <c r="B143" s="5" t="s">
         <v>145</v>
@@ -20989,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A144" s="21"/>
       <c r="B144" s="5" t="s">
         <v>146</v>
@@ -21121,7 +21142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A145" s="21"/>
       <c r="B145" s="5" t="s">
         <v>147</v>
@@ -21253,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A146" s="21"/>
       <c r="B146" s="5" t="s">
         <v>148</v>
@@ -21385,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A147" s="21"/>
       <c r="B147" s="5" t="s">
         <v>149</v>
@@ -21517,7 +21538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A148" s="21"/>
       <c r="B148" s="5" t="s">
         <v>150</v>
@@ -21649,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A149" s="22" t="s">
         <v>308</v>
       </c>
@@ -21783,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A150" s="21"/>
       <c r="B150" s="5" t="s">
         <v>152</v>
@@ -21915,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A151" s="21"/>
       <c r="B151" s="5" t="s">
         <v>153</v>
@@ -22047,7 +22068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A152" s="21"/>
       <c r="B152" s="5" t="s">
         <v>154</v>
@@ -22179,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A153" s="21"/>
       <c r="B153" s="5" t="s">
         <v>155</v>
@@ -22311,7 +22332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A154" s="21"/>
       <c r="B154" s="5" t="s">
         <v>156</v>
@@ -22443,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A155" s="21"/>
       <c r="B155" s="5" t="s">
         <v>157</v>
@@ -22575,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A156" s="21"/>
       <c r="B156" s="5" t="s">
         <v>158</v>
@@ -22707,7 +22728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A157" s="22" t="s">
         <v>309</v>
       </c>
@@ -22841,7 +22862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A158" s="21"/>
       <c r="B158" s="5" t="s">
         <v>160</v>
@@ -22973,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A159" s="21"/>
       <c r="B159" s="5" t="s">
         <v>161</v>
@@ -23105,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B160" s="5" t="s">
         <v>162</v>
       </c>
@@ -23236,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B161" s="5" t="s">
         <v>163</v>
       </c>
@@ -23367,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B162" s="5" t="s">
         <v>164</v>
       </c>
@@ -23498,7 +23519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B163" s="5" t="s">
         <v>165</v>
       </c>
@@ -23629,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B164" s="5" t="s">
         <v>166</v>
       </c>
@@ -23760,7 +23781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A165" s="22" t="s">
         <v>300</v>
       </c>
@@ -23894,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B166" s="5" t="s">
         <v>168</v>
       </c>
@@ -24025,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B167" s="5" t="s">
         <v>169</v>
       </c>
@@ -24156,7 +24177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B168" s="5" t="s">
         <v>170</v>
       </c>
@@ -24287,7 +24308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B169" s="5" t="s">
         <v>171</v>
       </c>
@@ -24418,7 +24439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B170" s="5" t="s">
         <v>172</v>
       </c>
@@ -24549,7 +24570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B171" s="5" t="s">
         <v>173</v>
       </c>
@@ -24680,7 +24701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B172" s="5" t="s">
         <v>174</v>
       </c>
@@ -24811,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A173" s="22" t="s">
         <v>318</v>
       </c>
@@ -24945,7 +24966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B174" s="5" t="s">
         <v>176</v>
       </c>
@@ -25076,7 +25097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B175" s="5" t="s">
         <v>177</v>
       </c>
@@ -25207,7 +25228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B176" s="5" t="s">
         <v>178</v>
       </c>
@@ -25338,7 +25359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B177" s="5" t="s">
         <v>179</v>
       </c>
@@ -25469,7 +25490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B178" s="5" t="s">
         <v>180</v>
       </c>
@@ -25600,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B179" s="5" t="s">
         <v>181</v>
       </c>
@@ -25731,7 +25752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B180" s="5" t="s">
         <v>182</v>
       </c>
@@ -25862,9 +25883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A181" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>183</v>
@@ -25996,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B182" s="5" t="s">
         <v>184</v>
       </c>
@@ -26127,7 +26148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B183" s="5" t="s">
         <v>185</v>
       </c>
@@ -26258,7 +26279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B184" s="5" t="s">
         <v>186</v>
       </c>
@@ -26389,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B185" s="5" t="s">
         <v>187</v>
       </c>
@@ -26520,7 +26541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B186" s="5" t="s">
         <v>188</v>
       </c>
@@ -26651,7 +26672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B187" s="5" t="s">
         <v>189</v>
       </c>
@@ -26782,7 +26803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B188" s="5" t="s">
         <v>190</v>
       </c>
@@ -26913,9 +26934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A189" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>191</v>
@@ -27047,7 +27068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B190" s="5" t="s">
         <v>192</v>
       </c>
@@ -27178,7 +27199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B191" s="5" t="s">
         <v>193</v>
       </c>
@@ -27309,7 +27330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B192" s="5" t="s">
         <v>194</v>
       </c>
@@ -27440,7 +27461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B193" s="5" t="s">
         <v>195</v>
       </c>
@@ -27571,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B194" s="5" t="s">
         <v>196</v>
       </c>
@@ -27702,7 +27723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B195" s="5" t="s">
         <v>197</v>
       </c>
@@ -27833,7 +27854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B196" s="5" t="s">
         <v>198</v>
       </c>
@@ -27964,9 +27985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A197" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>199</v>
@@ -28098,7 +28119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B198" s="5" t="s">
         <v>200</v>
       </c>
@@ -28229,7 +28250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B199" s="5" t="s">
         <v>201</v>
       </c>
@@ -28360,7 +28381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B200" s="5" t="s">
         <v>202</v>
       </c>
@@ -28491,7 +28512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B201" s="5" t="s">
         <v>203</v>
       </c>
@@ -28622,7 +28643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B202" s="5" t="s">
         <v>204</v>
       </c>
@@ -28753,7 +28774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B203" s="5" t="s">
         <v>205</v>
       </c>
@@ -28884,7 +28905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B204" s="5" t="s">
         <v>206</v>
       </c>
@@ -29015,9 +29036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A205" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>207</v>
@@ -29149,7 +29170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B206" s="5" t="s">
         <v>208</v>
       </c>
@@ -29280,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B207" s="5" t="s">
         <v>209</v>
       </c>
@@ -29411,7 +29432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B208" s="5" t="s">
         <v>210</v>
       </c>
@@ -29542,7 +29563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B209" s="5" t="s">
         <v>211</v>
       </c>
@@ -29673,7 +29694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B210" s="5" t="s">
         <v>212</v>
       </c>
@@ -29804,7 +29825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B211" s="5" t="s">
         <v>213</v>
       </c>
@@ -29935,7 +29956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B212" s="5" t="s">
         <v>214</v>
       </c>
@@ -30066,9 +30087,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A213" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>215</v>
@@ -30200,7 +30221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B214" s="5" t="s">
         <v>216</v>
       </c>
@@ -30331,7 +30352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B215" s="5" t="s">
         <v>217</v>
       </c>
@@ -30462,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B216" s="5" t="s">
         <v>218</v>
       </c>
@@ -30593,7 +30614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B217" s="5" t="s">
         <v>219</v>
       </c>
@@ -30724,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B218" s="5" t="s">
         <v>220</v>
       </c>
@@ -30855,7 +30876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B219" s="5" t="s">
         <v>221</v>
       </c>
@@ -30986,7 +31007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B220" s="5" t="s">
         <v>222</v>
       </c>
@@ -31117,9 +31138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A221" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>223</v>
@@ -31251,7 +31272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B222" s="5" t="s">
         <v>224</v>
       </c>
@@ -31382,7 +31403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B223" s="5" t="s">
         <v>225</v>
       </c>
@@ -31513,7 +31534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B224" s="5" t="s">
         <v>226</v>
       </c>
@@ -31644,7 +31665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B225" s="5" t="s">
         <v>227</v>
       </c>
@@ -31775,7 +31796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B226" s="5" t="s">
         <v>228</v>
       </c>
@@ -31906,7 +31927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B227" s="5" t="s">
         <v>229</v>
       </c>
@@ -32037,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B228" s="5" t="s">
         <v>230</v>
       </c>
@@ -32168,9 +32189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A229" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>231</v>
@@ -32302,7 +32323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B230" s="5" t="s">
         <v>232</v>
       </c>
@@ -32433,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B231" s="5" t="s">
         <v>233</v>
       </c>
@@ -32564,7 +32585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B232" s="5" t="s">
         <v>234</v>
       </c>
@@ -32695,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B233" s="5" t="s">
         <v>235</v>
       </c>
@@ -32826,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B234" s="5" t="s">
         <v>236</v>
       </c>
@@ -32957,7 +32978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B235" s="5" t="s">
         <v>237</v>
       </c>
@@ -33088,7 +33109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B236" s="5" t="s">
         <v>238</v>
       </c>
@@ -33219,7 +33240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A237" s="22" t="s">
         <v>301</v>
       </c>
@@ -33353,7 +33374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B238" s="5" t="s">
         <v>240</v>
       </c>
@@ -33484,7 +33505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B239" s="5" t="s">
         <v>241</v>
       </c>
@@ -33615,7 +33636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B240" s="5" t="s">
         <v>242</v>
       </c>
@@ -33746,7 +33767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B241" s="5" t="s">
         <v>243</v>
       </c>
@@ -33877,7 +33898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B242" s="5" t="s">
         <v>244</v>
       </c>
@@ -34008,7 +34029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B243" s="5" t="s">
         <v>245</v>
       </c>
@@ -34139,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B244" s="5" t="s">
         <v>246</v>
       </c>
@@ -34270,7 +34291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A245" s="22" t="s">
         <v>264</v>
       </c>
@@ -34404,7 +34425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B246" s="5" t="s">
         <v>248</v>
       </c>
@@ -34535,7 +34556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B247" s="5" t="s">
         <v>249</v>
       </c>
@@ -34666,7 +34687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B248" s="5" t="s">
         <v>250</v>
       </c>
@@ -34797,7 +34818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B249" s="5" t="s">
         <v>251</v>
       </c>
@@ -34928,7 +34949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B250" s="5" t="s">
         <v>252</v>
       </c>
@@ -35059,7 +35080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B251" s="5" t="s">
         <v>253</v>
       </c>
@@ -35190,7 +35211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B252" s="5" t="s">
         <v>254</v>
       </c>
@@ -35321,7 +35342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A253" s="22" t="s">
         <v>316</v>
       </c>
@@ -35455,7 +35476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B254" s="5" t="s">
         <v>256</v>
       </c>
@@ -35586,7 +35607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B255" s="5" t="s">
         <v>257</v>
       </c>
@@ -35618,7 +35639,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M255" s="8">
         <v>0</v>
@@ -35717,7 +35738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B256" s="5" t="s">
         <v>258</v>
       </c>
@@ -35848,7 +35869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B257" s="5" t="s">
         <v>259</v>
       </c>
@@ -35979,7 +36000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B258" s="5" t="s">
         <v>260</v>
       </c>
@@ -36110,7 +36131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B259" s="5" t="s">
         <v>261</v>
       </c>
@@ -36142,7 +36163,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M259" s="8">
         <v>0</v>
@@ -36241,7 +36262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:44" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B260" s="5" t="s">
         <v>262</v>
       </c>
@@ -36384,18 +36405,18 @@
     <mergeCell ref="U4:AB4"/>
     <mergeCell ref="AC4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:AJ30 I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E96:AJ150 E32:AJ93 E192:AR196 E160:AR172 E261:AJ1048576 AK237:AR246 E185:AR188 E221:AR223 E94:G94 I94:AJ95 E213:AJ213 X214:AJ214 E215:N215 P215:AJ215 I214:U214 E197:AJ198 I199:L199 P201:AJ202 R200 T200:AJ200 N199:AJ199 I216:AJ216 E217:AJ252 E203:AR203 I204:AR204 E202:H202 E205:AJ205 E206:G206 I206:N206 P206:AJ206 I207:L207 E210:AR212 E208:L209 M207:M209 O207:AJ209">
-    <cfRule type="cellIs" dxfId="58" priority="93" operator="equal">
+  <conditionalFormatting sqref="I31:AJ31 I151:AJ151 E152:AJ158 I159:AJ159 E96:AJ150 E32:AJ93 E192:AR196 E160:AR172 E261:AJ1048576 AK237:AR246 E185:AR188 E221:AR223 E94:G94 I94:AJ95 E213:AJ213 X214:AJ214 E215:N215 P215:AJ215 I214:U214 E197:AJ198 I199:L199 P201:AJ202 R200 T200:AJ200 N199:AJ199 I216:AJ216 E217:AJ252 E203:AR203 I204:AR204 E202:H202 E205:AJ205 E206:G206 I206:N206 P206:AJ206 I207:L207 E210:AR212 E208:L209 M207:M209 O207:AJ209 E5:AJ13 F14:G14 I14:AJ14 E15:AJ30 E253:AR254 E255:K255 M255:AR255 E256:AR259">
+    <cfRule type="cellIs" dxfId="61" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:AJ4">
-    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C1048576 C2:C3">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36407,7 +36428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D1048576 D2:D3">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -36419,286 +36440,301 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AR148 AK152:AR156 AN149:AR151 AN157:AR159 AK220:AR252 AK261:AR1048576">
-    <cfRule type="cellIs" dxfId="56" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="93" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AR4">
-    <cfRule type="cellIs" dxfId="55" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK149:AM151">
-    <cfRule type="cellIs" dxfId="54" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="90" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK157:AM159">
-    <cfRule type="cellIs" dxfId="53" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229:AJ231">
-    <cfRule type="cellIs" dxfId="52" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK229:AR231">
-    <cfRule type="cellIs" dxfId="51" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE238">
-    <cfRule type="cellIs" dxfId="50" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:H31">
-    <cfRule type="cellIs" dxfId="49" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:H151">
-    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:H159">
+    <cfRule type="cellIs" dxfId="50" priority="80" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
+    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E243">
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K245">
     <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+  <conditionalFormatting sqref="E173:AJ180">
+    <cfRule type="cellIs" dxfId="46" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E243">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+  <conditionalFormatting sqref="AK173:AR180">
+    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K245">
-    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+  <conditionalFormatting sqref="AK253:AR259">
+    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E173:AJ180">
+  <conditionalFormatting sqref="E253:AJ253 E254:AC254 AF254:AJ254 M259:AJ259">
     <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK173:AR180">
+  <conditionalFormatting sqref="AD258:AE258">
     <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E253:AR259">
+  <conditionalFormatting sqref="E260:L260">
     <cfRule type="cellIs" dxfId="41" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK253:AR259">
+  <conditionalFormatting sqref="M260:T260">
     <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E253:AJ253 E254:AC254 AF254:AJ254 M259:AJ259">
+  <conditionalFormatting sqref="U260:AB260">
     <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD258:AE258">
+  <conditionalFormatting sqref="AC260:AJ260">
     <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E260:L260">
-    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
+  <conditionalFormatting sqref="AK215:AR219">
+    <cfRule type="cellIs" dxfId="37" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M260:T260">
-    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
+  <conditionalFormatting sqref="AK260:AR260">
+    <cfRule type="cellIs" dxfId="36" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U260:AB260">
-    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
+  <conditionalFormatting sqref="E203:AR203 E200:O202">
+    <cfRule type="cellIs" dxfId="35" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC260:AJ260">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="equal">
+  <conditionalFormatting sqref="E200:O200">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK215:AR219">
+  <conditionalFormatting sqref="E201:O202">
     <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK260:AR260">
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+  <conditionalFormatting sqref="E181:AJ182 I183:AJ183 E184:AJ184">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E203:AR203 E200:O202">
-    <cfRule type="cellIs" dxfId="31" priority="50" operator="equal">
+  <conditionalFormatting sqref="AK181:AR184">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200:O200">
-    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+  <conditionalFormatting sqref="E183:H183">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E201:O202">
-    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+  <conditionalFormatting sqref="E189:AJ191">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181:AJ182 I183:AJ183 E184:AJ184">
+  <conditionalFormatting sqref="AK189:AR191">
     <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK181:AR184">
+  <conditionalFormatting sqref="H94:H95">
     <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E183:H183">
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189:AJ191">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK189:AR191">
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94:H95">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AK213:AR214">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V214:W214">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O215">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:H214">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK197:AR199">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M199">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199:H199">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199:H199">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK200:AR202">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P200">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q200">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S200">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E216:H216">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P200">
+  <conditionalFormatting sqref="E204:H204">
     <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q200">
+  <conditionalFormatting sqref="E204:H204">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S200">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+  <conditionalFormatting sqref="AK205:AR206">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216:H216">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+  <conditionalFormatting sqref="H206">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E204:H204">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  <conditionalFormatting sqref="O206">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E204:H204">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+  <conditionalFormatting sqref="E207:G207">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK205:AR206">
+  <conditionalFormatting sqref="H207">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H206">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="AK207:AM208">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O206">
+  <conditionalFormatting sqref="AK209:AR209 AN207:AR208">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E207:G207">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="N207:N209">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H207">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK207:AM208">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK209:AR209 AN207:AR208">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="L255">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N207:N209">
+  <conditionalFormatting sqref="L255">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
